--- a/Canbus Decode.xlsx
+++ b/Canbus Decode.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Marcellatwin/Documents/GitHub/honda-canbus-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3AB6032-AF3A-4149-AF4C-F20A1EF771CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{952AD2C6-92DE-6C47-BE15-9CD09DAEB3F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="246">
   <si>
     <t>Can ID</t>
   </si>
@@ -106,9 +106,6 @@
     <t>Headlights: Low Beams</t>
   </si>
   <si>
-    <t>FF</t>
-  </si>
-  <si>
     <t>Clutch OUT</t>
   </si>
   <si>
@@ -118,12 +115,6 @@
     <t>00</t>
   </si>
   <si>
-    <t>ON Throttle</t>
-  </si>
-  <si>
-    <t>Full Throttle</t>
-  </si>
-  <si>
     <t>Speed, one for data, other for speedometer</t>
   </si>
   <si>
@@ -139,12 +130,6 @@
     <t>20ish at idle (AC off), 80ish (AC on)</t>
   </si>
   <si>
-    <t>OFF Throttle??</t>
-  </si>
-  <si>
-    <t>Partial Throttle (On)??</t>
-  </si>
-  <si>
     <t>Throttle Off, Brake ON</t>
   </si>
   <si>
@@ -208,12 +193,6 @@
     <t>14 @ FULL throttle (not lowest) 54 @ Off throttle (highest) 2C @ 25ish MPG</t>
   </si>
   <si>
-    <t>Check when First start Car</t>
-  </si>
-  <si>
-    <t>Throttle Position (throttle plate) or throttle compensation?? (IACV??)</t>
-  </si>
-  <si>
     <t>test a tight turn to get % diff</t>
   </si>
   <si>
@@ -334,12 +313,6 @@
     <t>Cruise Control Set/Deaccelerate button</t>
   </si>
   <si>
-    <t>Moving?</t>
-  </si>
-  <si>
-    <t>Not moving?</t>
-  </si>
-  <si>
     <t>Cruise Control Main On/Off button</t>
   </si>
   <si>
@@ -358,12 +331,6 @@
     <t>1D0</t>
   </si>
   <si>
-    <t>xx</t>
-  </si>
-  <si>
-    <t>Seems like speed</t>
-  </si>
-  <si>
     <t>Could be water temp, steadies at 7F, 80 - advice from forum</t>
   </si>
   <si>
@@ -772,7 +739,37 @@
     <t>O5</t>
   </si>
   <si>
-    <t>Possible Engine loads or points for mapping, 00 when idle, FF when off throttle and reving down</t>
+    <t>Brake pedal amount</t>
+  </si>
+  <si>
+    <t>00 66 when off brake, 02 14 when pushing HARD</t>
+  </si>
+  <si>
+    <t>Ebrake OFF</t>
+  </si>
+  <si>
+    <t>Ebrake ON</t>
+  </si>
+  <si>
+    <t>Commanded throttle position</t>
+  </si>
+  <si>
+    <t>Seems like speed???</t>
+  </si>
+  <si>
+    <t>1A4</t>
+  </si>
+  <si>
+    <t>Actual Throttle position</t>
+  </si>
+  <si>
+    <t>Starts at 00 43</t>
+  </si>
+  <si>
+    <t>Possible commanded load</t>
+  </si>
+  <si>
+    <t>00 when OFF throttle, FF when fully ON</t>
   </si>
 </sst>
 </file>
@@ -826,7 +823,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -1115,11 +1112,72 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1166,217 +1224,271 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1693,10 +1805,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:M62"/>
+  <dimension ref="B2:M59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -1711,1939 +1823,1905 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="40" customHeight="1" thickBot="1">
-      <c r="B2" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="24" t="s">
+      <c r="B2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13">
+      <c r="B3" s="85" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="49" t="s">
+        <v>242</v>
+      </c>
+      <c r="L3" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" s="15"/>
+    </row>
+    <row r="4" spans="2:13">
+      <c r="B4" s="86"/>
+      <c r="C4" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="53" t="s">
+        <v>239</v>
+      </c>
+      <c r="L4" s="53" t="s">
+        <v>243</v>
+      </c>
+      <c r="M4" s="15"/>
+    </row>
+    <row r="5" spans="2:13">
+      <c r="B5" s="86"/>
+      <c r="C5" s="99" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="99" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="99" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="99" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="100" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="99" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="99" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="99" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="101" t="s">
+        <v>244</v>
+      </c>
+      <c r="L5" s="101" t="s">
+        <v>245</v>
+      </c>
+      <c r="M5" s="15"/>
+    </row>
+    <row r="6" spans="2:13">
+      <c r="B6" s="87"/>
+      <c r="C6" s="99" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="99" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="99" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="99" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="99" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="102" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="102" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="103" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="101" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" s="104"/>
+      <c r="M6" s="15"/>
+    </row>
+    <row r="7" spans="2:13">
+      <c r="B7" s="87"/>
+      <c r="C7" s="99" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="99" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="99" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="99" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="99" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="102" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="102" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="103" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="104" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" s="104"/>
+      <c r="M7" s="15"/>
+    </row>
+    <row r="8" spans="2:13" ht="17" thickBot="1">
+      <c r="B8" s="88"/>
+      <c r="C8" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="68" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="69" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="70" t="s">
+        <v>42</v>
+      </c>
+      <c r="L8" s="70"/>
+      <c r="M8" s="15"/>
+    </row>
+    <row r="9" spans="2:13">
+      <c r="B9" s="89">
+        <v>158</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" s="30" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" ht="17" thickBot="1">
+      <c r="B10" s="84"/>
+      <c r="C10" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="67" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="69" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="L10" s="70"/>
+    </row>
+    <row r="11" spans="2:13">
+      <c r="B11" s="83" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="33">
+        <v>80</v>
+      </c>
+      <c r="H11" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="L11" s="35" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13">
+      <c r="B12" s="89"/>
+      <c r="C12" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="19">
+        <v>20</v>
+      </c>
+      <c r="J12" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="L12" s="20"/>
+    </row>
+    <row r="13" spans="2:13">
+      <c r="B13" s="89"/>
+      <c r="C13" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="19">
+        <v>81</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="19">
+        <v>20</v>
+      </c>
+      <c r="J13" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L13" s="20"/>
+    </row>
+    <row r="14" spans="2:13">
+      <c r="B14" s="89"/>
+      <c r="C14" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="19">
+        <v>82</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="J14" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="L14" s="20"/>
+    </row>
+    <row r="15" spans="2:13">
+      <c r="B15" s="89"/>
+      <c r="C15" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="J15" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="K15" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="L15" s="20"/>
+    </row>
+    <row r="16" spans="2:13">
+      <c r="B16" s="89"/>
+      <c r="C16" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="19">
+        <v>20</v>
+      </c>
+      <c r="J16" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="K16" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="L16" s="20"/>
+    </row>
+    <row r="17" spans="2:12">
+      <c r="B17" s="89"/>
+      <c r="C17" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="K17" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="L17" s="20"/>
+    </row>
+    <row r="18" spans="2:12">
+      <c r="B18" s="89"/>
+      <c r="C18" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="51">
+        <v>48</v>
+      </c>
+      <c r="H18" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="J18" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="K18" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="L18" s="20"/>
+    </row>
+    <row r="19" spans="2:12" ht="17" thickBot="1">
+      <c r="B19" s="89"/>
+      <c r="C19" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="59">
+        <v>83</v>
+      </c>
+      <c r="H19" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" s="59">
+        <v>20</v>
+      </c>
+      <c r="J19" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="K19" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="L19" s="23"/>
+    </row>
+    <row r="20" spans="2:12" s="14" customFormat="1" ht="17" thickBot="1">
+      <c r="B20" s="61" t="s">
+        <v>241</v>
+      </c>
+      <c r="C20" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="K20" s="61" t="s">
+        <v>240</v>
+      </c>
+      <c r="L20" s="61" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12">
+      <c r="B21" s="89" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="60" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="J21" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="K21" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="L21" s="35" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12">
+      <c r="B22" s="89"/>
+      <c r="C22" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="J22" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="K22" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="L22" s="20" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12">
+      <c r="B23" s="89"/>
+      <c r="C23" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="J23" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="K23" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="L23" s="20" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12">
+      <c r="B24" s="89"/>
+      <c r="C24" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="J24" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="K24" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="L24" s="20" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12">
+      <c r="B25" s="89"/>
+      <c r="C25" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="J25" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="K25" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="L25" s="20" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12">
+      <c r="B26" s="89"/>
+      <c r="C26" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="J26" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="K26" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="L26" s="20" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12">
+      <c r="B27" s="89"/>
+      <c r="C27" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I27" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="J27" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="K27" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="L27" s="20" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12">
+      <c r="B28" s="89"/>
+      <c r="C28" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="J28" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="K28" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="L28" s="20" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12">
+      <c r="B29" s="89"/>
+      <c r="C29" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="I29" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="J29" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="K29" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="L29" s="20"/>
+    </row>
+    <row r="30" spans="2:12">
+      <c r="B30" s="89"/>
+      <c r="C30" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="I30" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="J30" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="K30" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="L30" s="20"/>
+    </row>
+    <row r="31" spans="2:12">
+      <c r="B31" s="89"/>
+      <c r="C31" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="D31" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="H31" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="I31" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="J31" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="K31" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="L31" s="20"/>
+    </row>
+    <row r="32" spans="2:12">
+      <c r="B32" s="89"/>
+      <c r="C32" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="I32" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="J32" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="K32" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="L32" s="20"/>
+    </row>
+    <row r="33" spans="2:13">
+      <c r="B33" s="89"/>
+      <c r="C33" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="H33" s="51" t="s">
+        <v>86</v>
+      </c>
+      <c r="I33" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="J33" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="K33" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="L33" s="20"/>
+    </row>
+    <row r="34" spans="2:13">
+      <c r="B34" s="89"/>
+      <c r="C34" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="H34" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="I34" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="J34" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="K34" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="L34" s="20"/>
+    </row>
+    <row r="35" spans="2:13">
+      <c r="B35" s="89"/>
+      <c r="C35" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="F35" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G35" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H35" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I35" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="J35" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="K35" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="L35" s="20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13">
+      <c r="B36" s="89"/>
+      <c r="C36" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="F36" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G36" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H36" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I36" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="J36" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="K36" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="L36" s="20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" ht="17" thickBot="1">
+      <c r="B37" s="84"/>
+      <c r="C37" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="F37" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="G37" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="H37" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="I37" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="J37" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="K37" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13">
-      <c r="B3" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="27" t="s">
+      <c r="L37" s="16"/>
+    </row>
+    <row r="38" spans="2:13" s="14" customFormat="1" ht="17" thickBot="1">
+      <c r="B38" s="54" t="s">
+        <v>98</v>
+      </c>
+      <c r="C38" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="L3" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="M3" s="13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13">
-      <c r="B4" s="30"/>
-      <c r="C4" s="31" t="s">
+      <c r="D38" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="H38" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="I38" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="J38" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="K38" s="54" t="s">
+        <v>235</v>
+      </c>
+      <c r="L38" s="54"/>
+    </row>
+    <row r="39" spans="2:13" ht="17" thickBot="1">
+      <c r="B39" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="73" t="s">
+        <v>30</v>
+      </c>
+      <c r="D39" s="74" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" s="74" t="s">
+        <v>16</v>
+      </c>
+      <c r="F39" s="74" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" s="74" t="s">
+        <v>14</v>
+      </c>
+      <c r="H39" s="74" t="s">
+        <v>14</v>
+      </c>
+      <c r="I39" s="74" t="s">
+        <v>14</v>
+      </c>
+      <c r="J39" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="K39" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="L39" s="72"/>
+    </row>
+    <row r="40" spans="2:13" ht="17" thickBot="1">
+      <c r="B40" s="41">
+        <v>255</v>
+      </c>
+      <c r="C40" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="E40" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="F40" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="G40" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="H40" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="I40" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="J40" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="K40" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="L40" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="M40" s="13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13">
+      <c r="B41" s="83">
+        <v>294</v>
+      </c>
+      <c r="C41" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G41" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H41" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I41" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="J41" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="K41" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="L41" s="30"/>
+    </row>
+    <row r="42" spans="2:13">
+      <c r="B42" s="89"/>
+      <c r="C42" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F42" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G42" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H42" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I42" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="J42" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="K42" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="L42" s="20"/>
+    </row>
+    <row r="43" spans="2:13">
+      <c r="B43" s="89"/>
+      <c r="C43" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="D43" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F43" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G43" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H43" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I43" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="J43" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="K43" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="L43" s="20"/>
+    </row>
+    <row r="44" spans="2:13">
+      <c r="B44" s="89"/>
+      <c r="C44" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D44" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F44" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G44" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H44" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I44" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="J44" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="K44" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="L44" s="20"/>
+    </row>
+    <row r="45" spans="2:13">
+      <c r="B45" s="89"/>
+      <c r="C45" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="D45" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F45" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G45" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H45" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I45" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="J45" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="K45" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="L45" s="20"/>
+    </row>
+    <row r="46" spans="2:13" ht="17" thickBot="1">
+      <c r="B46" s="84"/>
+      <c r="C46" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="D46" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="E46" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="F46" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="G46" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="H46" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="I46" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="J46" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="K46" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="L46" s="16"/>
+    </row>
+    <row r="47" spans="2:13" ht="17" thickBot="1">
+      <c r="B47" s="41">
+        <v>309</v>
+      </c>
+      <c r="C47" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="F47" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="G47" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="H47" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="I47" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="J47" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="K47" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="L47" s="41" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13">
+      <c r="B48" s="83">
+        <v>320</v>
+      </c>
+      <c r="C48" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="E48" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F48" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="G48" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="H48" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="I48" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="J48" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="K48" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="L48" s="30"/>
+    </row>
+    <row r="49" spans="2:12" ht="17" thickBot="1">
+      <c r="B49" s="84"/>
+      <c r="C49" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" s="25">
+        <v>40</v>
+      </c>
+      <c r="E49" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F49" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="G49" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="H49" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="I49" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="J49" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="K49" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="L49" s="16"/>
+    </row>
+    <row r="50" spans="2:12">
+      <c r="B50" s="80">
+        <v>324</v>
+      </c>
+      <c r="C50" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D50" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="E50" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="F50" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="G50" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="H50" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="I50" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="J50" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="K50" s="49" t="s">
+        <v>99</v>
+      </c>
+      <c r="L50" s="49" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="2:12">
+      <c r="B51" s="81"/>
+      <c r="C51" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="D51" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="E51" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="F51" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="G51" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="H51" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="I51" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="J51" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="K51" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="L51" s="53" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="52" spans="2:12" ht="17" thickBot="1">
+      <c r="B52" s="82"/>
+      <c r="C52" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="D52" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="E52" s="67" t="s">
+        <v>16</v>
+      </c>
+      <c r="F52" s="67" t="s">
+        <v>16</v>
+      </c>
+      <c r="G52" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="H52" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="I52" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="J52" s="69" t="s">
+        <v>14</v>
+      </c>
+      <c r="K52" s="70" t="s">
+        <v>45</v>
+      </c>
+      <c r="L52" s="70" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="53" spans="2:12">
+      <c r="B53" s="83">
+        <v>377</v>
+      </c>
+      <c r="C53" s="76" t="s">
+        <v>14</v>
+      </c>
+      <c r="D53" s="77" t="s">
+        <v>14</v>
+      </c>
+      <c r="E53" s="77" t="s">
+        <v>14</v>
+      </c>
+      <c r="F53" s="77" t="s">
+        <v>14</v>
+      </c>
+      <c r="G53" s="77" t="s">
+        <v>16</v>
+      </c>
+      <c r="H53" s="77" t="s">
+        <v>14</v>
+      </c>
+      <c r="I53" s="77" t="s">
+        <v>14</v>
+      </c>
+      <c r="J53" s="78" t="s">
+        <v>14</v>
+      </c>
+      <c r="K53" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="L53" s="79" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="2:12" ht="17" thickBot="1">
+      <c r="B54" s="84"/>
+      <c r="C54" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="D54" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E54" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F54" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="G54" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="H54" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="I54" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="J54" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="K54" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="L54" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="2:12" ht="17" thickBot="1">
+      <c r="B55" s="41">
+        <v>378</v>
+      </c>
+      <c r="C55" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="E55" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="F55" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="G55" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="H55" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="I55" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="J55" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="K55" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="L55" s="41" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="56" spans="2:12">
+      <c r="B56" s="80">
+        <v>405</v>
+      </c>
+      <c r="C56" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="E56" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="F56" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="G56" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="H56" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="I56" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="J56" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="K56" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="L56" s="49"/>
+    </row>
+    <row r="57" spans="2:12">
+      <c r="B57" s="81"/>
+      <c r="C57" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="D57" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="E57" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="F57" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="G57" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="H57" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="I57" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="J57" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="K57" s="58" t="s">
+        <v>95</v>
+      </c>
+      <c r="L57" s="58"/>
+    </row>
+    <row r="58" spans="2:12">
+      <c r="B58" s="81"/>
+      <c r="C58" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="D58" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="E58" s="51">
         <v>24</v>
       </c>
-      <c r="D4" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="L4" s="33" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13">
-      <c r="B5" s="30"/>
-      <c r="C5" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="L5" s="33"/>
-    </row>
-    <row r="6" spans="2:13">
-      <c r="B6" s="30"/>
-      <c r="C6" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="L6" s="33"/>
-    </row>
-    <row r="7" spans="2:13">
-      <c r="B7" s="30"/>
-      <c r="C7" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="K7" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="L7" s="33"/>
-    </row>
-    <row r="8" spans="2:13">
-      <c r="B8" s="36"/>
-      <c r="C8" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="K8" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="L8" s="37"/>
-    </row>
-    <row r="9" spans="2:13">
-      <c r="B9" s="36"/>
-      <c r="C9" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="I9" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="J9" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="K9" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="L9" s="37"/>
-    </row>
-    <row r="10" spans="2:13">
-      <c r="B10" s="36"/>
-      <c r="C10" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="I10" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="J10" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="K10" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="L10" s="37"/>
-    </row>
-    <row r="11" spans="2:13" ht="17" thickBot="1">
-      <c r="B11" s="39"/>
-      <c r="C11" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="J11" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="K11" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="L11" s="23"/>
-    </row>
-    <row r="12" spans="2:13">
-      <c r="B12" s="43">
-        <v>158</v>
-      </c>
-      <c r="C12" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="J12" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="K12" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="L12" s="47" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" ht="17" thickBot="1">
-      <c r="B13" s="48"/>
-      <c r="C13" s="49" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="J13" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="K13" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="L13" s="23"/>
-    </row>
-    <row r="14" spans="2:13">
-      <c r="B14" s="50" t="s">
+      <c r="F58" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="G58" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="H58" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="I58" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="J58" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="K58" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="L58" s="53"/>
+    </row>
+    <row r="59" spans="2:12" ht="17" thickBot="1">
+      <c r="B59" s="82"/>
+      <c r="C59" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="D59" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="E59" s="36">
         <v>20</v>
       </c>
-      <c r="C14" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="52">
-        <v>80</v>
-      </c>
-      <c r="H14" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="J14" s="53" t="s">
-        <v>14</v>
-      </c>
-      <c r="K14" s="54" t="s">
-        <v>42</v>
-      </c>
-      <c r="L14" s="54" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13">
-      <c r="B15" s="43"/>
-      <c r="C15" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" s="32">
-        <v>20</v>
-      </c>
-      <c r="J15" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="K15" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="L15" s="33"/>
-    </row>
-    <row r="16" spans="2:13">
-      <c r="B16" s="43"/>
-      <c r="C16" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" s="32">
-        <v>81</v>
-      </c>
-      <c r="H16" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="I16" s="32">
-        <v>20</v>
-      </c>
-      <c r="J16" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="K16" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="L16" s="33"/>
-    </row>
-    <row r="17" spans="2:12">
-      <c r="B17" s="43"/>
-      <c r="C17" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="32">
-        <v>82</v>
-      </c>
-      <c r="H17" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="I17" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="J17" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="K17" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="L17" s="33"/>
-    </row>
-    <row r="18" spans="2:12">
-      <c r="B18" s="43"/>
-      <c r="C18" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="I18" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="J18" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="K18" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="L18" s="33"/>
-    </row>
-    <row r="19" spans="2:12">
-      <c r="B19" s="43"/>
-      <c r="C19" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="H19" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="I19" s="32">
-        <v>20</v>
-      </c>
-      <c r="J19" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="K19" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="L19" s="33"/>
-    </row>
-    <row r="20" spans="2:12">
-      <c r="B20" s="43"/>
-      <c r="C20" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="H20" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="I20" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="J20" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="K20" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="L20" s="33"/>
-    </row>
-    <row r="21" spans="2:12">
-      <c r="B21" s="43"/>
-      <c r="C21" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" s="55">
-        <v>48</v>
-      </c>
-      <c r="H21" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="I21" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="J21" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="K21" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="L21" s="33"/>
-    </row>
-    <row r="22" spans="2:12" ht="17" thickBot="1">
-      <c r="B22" s="48"/>
-      <c r="C22" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" s="32">
-        <v>83</v>
-      </c>
-      <c r="H22" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="I22" s="32">
-        <v>20</v>
-      </c>
-      <c r="J22" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="K22" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="L22" s="33"/>
-    </row>
-    <row r="23" spans="2:12">
-      <c r="B23" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="57" t="s">
-        <v>86</v>
-      </c>
-      <c r="D23" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="H23" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="I23" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="J23" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="K23" s="47" t="s">
-        <v>72</v>
-      </c>
-      <c r="L23" s="47" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12">
-      <c r="B24" s="43"/>
-      <c r="C24" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="D24" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="H24" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="I24" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="J24" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="K24" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="L24" s="33" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12">
-      <c r="B25" s="43"/>
-      <c r="C25" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="D25" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="H25" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="I25" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="J25" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="K25" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="L25" s="33" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12">
-      <c r="B26" s="43"/>
-      <c r="C26" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="D26" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="E26" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="H26" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="I26" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="J26" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="K26" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="L26" s="33" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12">
-      <c r="B27" s="43"/>
-      <c r="C27" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="D27" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="E27" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="H27" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="I27" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="J27" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="K27" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="L27" s="33" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12">
-      <c r="B28" s="43"/>
-      <c r="C28" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="D28" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="E28" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="H28" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="I28" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="J28" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="K28" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="L28" s="33" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12">
-      <c r="B29" s="43"/>
-      <c r="C29" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D29" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="E29" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="H29" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="I29" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="J29" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="K29" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="L29" s="33" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12">
-      <c r="B30" s="43"/>
-      <c r="C30" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="D30" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="E30" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="F30" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="H30" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="I30" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="J30" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="K30" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="L30" s="33" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12">
-      <c r="B31" s="43"/>
-      <c r="C31" s="58" t="s">
-        <v>70</v>
-      </c>
-      <c r="D31" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="E31" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="F31" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="H31" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="I31" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="J31" s="59" t="s">
-        <v>14</v>
-      </c>
-      <c r="K31" s="60" t="s">
-        <v>102</v>
-      </c>
-      <c r="L31" s="33"/>
-    </row>
-    <row r="32" spans="2:12">
-      <c r="B32" s="43"/>
-      <c r="C32" s="58" t="s">
-        <v>63</v>
-      </c>
-      <c r="D32" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="E32" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="F32" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="H32" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="I32" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="J32" s="59" t="s">
-        <v>14</v>
-      </c>
-      <c r="K32" s="56" t="s">
+      <c r="F59" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="G59" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="H59" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="I59" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="J59" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="K59" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="L32" s="33"/>
-    </row>
-    <row r="33" spans="2:13">
-      <c r="B33" s="43"/>
-      <c r="C33" s="58" t="s">
-        <v>98</v>
-      </c>
-      <c r="D33" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="E33" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="F33" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="H33" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="I33" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="J33" s="59" t="s">
-        <v>14</v>
-      </c>
-      <c r="K33" s="56" t="s">
-        <v>99</v>
-      </c>
-      <c r="L33" s="33"/>
-    </row>
-    <row r="34" spans="2:13">
-      <c r="B34" s="43"/>
-      <c r="C34" s="58" t="s">
-        <v>93</v>
-      </c>
-      <c r="D34" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="E34" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="F34" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="H34" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="I34" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="J34" s="59" t="s">
-        <v>14</v>
-      </c>
-      <c r="K34" s="60" t="s">
-        <v>96</v>
-      </c>
-      <c r="L34" s="33"/>
-    </row>
-    <row r="35" spans="2:13">
-      <c r="B35" s="43"/>
-      <c r="C35" s="58" t="s">
-        <v>14</v>
-      </c>
-      <c r="D35" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="E35" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="F35" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="H35" s="55" t="s">
-        <v>93</v>
-      </c>
-      <c r="I35" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="J35" s="59" t="s">
-        <v>14</v>
-      </c>
-      <c r="K35" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="L35" s="33"/>
-    </row>
-    <row r="36" spans="2:13">
-      <c r="B36" s="43"/>
-      <c r="C36" s="58" t="s">
-        <v>14</v>
-      </c>
-      <c r="D36" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="E36" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="F36" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="H36" s="55" t="s">
-        <v>65</v>
-      </c>
-      <c r="I36" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="J36" s="59" t="s">
-        <v>14</v>
-      </c>
-      <c r="K36" s="56" t="s">
-        <v>95</v>
-      </c>
-      <c r="L36" s="33"/>
-    </row>
-    <row r="37" spans="2:13">
-      <c r="B37" s="43"/>
-      <c r="C37" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="D37" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="E37" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="F37" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G37" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="H37" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="I37" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="J37" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="K37" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="L37" s="33" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="38" spans="2:13">
-      <c r="B38" s="43"/>
-      <c r="C38" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="D38" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="E38" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="F38" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="H38" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="I38" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="J38" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="K38" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="L38" s="33" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13" ht="17" thickBot="1">
-      <c r="B39" s="48"/>
-      <c r="C39" s="49" t="s">
-        <v>14</v>
-      </c>
-      <c r="D39" s="61" t="s">
-        <v>14</v>
-      </c>
-      <c r="E39" s="61" t="s">
-        <v>67</v>
-      </c>
-      <c r="F39" s="61" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" s="61" t="s">
-        <v>14</v>
-      </c>
-      <c r="H39" s="61" t="s">
-        <v>14</v>
-      </c>
-      <c r="I39" s="61" t="s">
-        <v>14</v>
-      </c>
-      <c r="J39" s="62" t="s">
-        <v>14</v>
-      </c>
-      <c r="K39" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="L39" s="23"/>
-    </row>
-    <row r="40" spans="2:13" ht="17" thickBot="1">
-      <c r="B40" s="63" t="s">
-        <v>17</v>
-      </c>
-      <c r="C40" s="64" t="s">
-        <v>33</v>
-      </c>
-      <c r="D40" s="65" t="s">
-        <v>16</v>
-      </c>
-      <c r="E40" s="65" t="s">
-        <v>16</v>
-      </c>
-      <c r="F40" s="65" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" s="65" t="s">
-        <v>14</v>
-      </c>
-      <c r="H40" s="65" t="s">
-        <v>14</v>
-      </c>
-      <c r="I40" s="65" t="s">
-        <v>14</v>
-      </c>
-      <c r="J40" s="66" t="s">
-        <v>14</v>
-      </c>
-      <c r="K40" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="L40" s="63"/>
-    </row>
-    <row r="41" spans="2:13" ht="17" thickBot="1">
-      <c r="B41" s="67">
-        <v>255</v>
-      </c>
-      <c r="C41" s="68" t="s">
-        <v>16</v>
-      </c>
-      <c r="D41" s="69" t="s">
-        <v>16</v>
-      </c>
-      <c r="E41" s="69" t="s">
-        <v>16</v>
-      </c>
-      <c r="F41" s="69" t="s">
-        <v>16</v>
-      </c>
-      <c r="G41" s="69" t="s">
-        <v>14</v>
-      </c>
-      <c r="H41" s="69" t="s">
-        <v>14</v>
-      </c>
-      <c r="I41" s="69" t="s">
-        <v>14</v>
-      </c>
-      <c r="J41" s="70" t="s">
-        <v>14</v>
-      </c>
-      <c r="K41" s="67" t="s">
-        <v>44</v>
-      </c>
-      <c r="L41" s="67" t="s">
-        <v>45</v>
-      </c>
-      <c r="M41" s="13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13">
-      <c r="B42" s="50">
-        <v>294</v>
-      </c>
-      <c r="C42" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="D42" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="E42" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="F42" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="H42" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="I42" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="J42" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="K42" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="L42" s="47"/>
-    </row>
-    <row r="43" spans="2:13">
-      <c r="B43" s="43"/>
-      <c r="C43" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="D43" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="E43" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="F43" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="H43" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="I43" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="J43" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="K43" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="L43" s="33"/>
-    </row>
-    <row r="44" spans="2:13">
-      <c r="B44" s="43"/>
-      <c r="C44" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="D44" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="E44" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="F44" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G44" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="H44" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="I44" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="J44" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="K44" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="L44" s="33"/>
-    </row>
-    <row r="45" spans="2:13">
-      <c r="B45" s="43"/>
-      <c r="C45" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="D45" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="E45" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="F45" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G45" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="H45" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="I45" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="J45" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="K45" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="L45" s="33"/>
-    </row>
-    <row r="46" spans="2:13">
-      <c r="B46" s="43"/>
-      <c r="C46" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="D46" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="E46" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="F46" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G46" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="H46" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="I46" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="J46" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="K46" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="L46" s="33"/>
-    </row>
-    <row r="47" spans="2:13" ht="17" thickBot="1">
-      <c r="B47" s="48"/>
-      <c r="C47" s="49" t="s">
-        <v>80</v>
-      </c>
-      <c r="D47" s="61" t="s">
-        <v>14</v>
-      </c>
-      <c r="E47" s="61" t="s">
-        <v>14</v>
-      </c>
-      <c r="F47" s="61" t="s">
-        <v>14</v>
-      </c>
-      <c r="G47" s="61" t="s">
-        <v>14</v>
-      </c>
-      <c r="H47" s="61" t="s">
-        <v>14</v>
-      </c>
-      <c r="I47" s="61" t="s">
-        <v>14</v>
-      </c>
-      <c r="J47" s="62" t="s">
-        <v>14</v>
-      </c>
-      <c r="K47" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="L47" s="23"/>
-    </row>
-    <row r="48" spans="2:13" ht="17" thickBot="1">
-      <c r="B48" s="67">
-        <v>309</v>
-      </c>
-      <c r="C48" s="68" t="s">
-        <v>14</v>
-      </c>
-      <c r="D48" s="69" t="s">
-        <v>14</v>
-      </c>
-      <c r="E48" s="69" t="s">
-        <v>16</v>
-      </c>
-      <c r="F48" s="69" t="s">
-        <v>16</v>
-      </c>
-      <c r="G48" s="69" t="s">
-        <v>14</v>
-      </c>
-      <c r="H48" s="69" t="s">
-        <v>14</v>
-      </c>
-      <c r="I48" s="69" t="s">
-        <v>14</v>
-      </c>
-      <c r="J48" s="70" t="s">
-        <v>14</v>
-      </c>
-      <c r="K48" s="67" t="s">
-        <v>85</v>
-      </c>
-      <c r="L48" s="67" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="49" spans="2:12">
-      <c r="B49" s="50">
-        <v>320</v>
-      </c>
-      <c r="C49" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="D49" s="71" t="s">
-        <v>27</v>
-      </c>
-      <c r="E49" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="F49" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="G49" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="H49" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="I49" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="J49" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="K49" s="47" t="s">
-        <v>114</v>
-      </c>
-      <c r="L49" s="47"/>
-    </row>
-    <row r="50" spans="2:12" ht="17" thickBot="1">
-      <c r="B50" s="48"/>
-      <c r="C50" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="D50" s="40">
-        <v>40</v>
-      </c>
-      <c r="E50" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="F50" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="G50" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="H50" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="I50" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="J50" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="K50" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="L50" s="23"/>
-    </row>
-    <row r="51" spans="2:12">
-      <c r="B51" s="72">
-        <v>324</v>
-      </c>
-      <c r="C51" s="73" t="s">
-        <v>16</v>
-      </c>
-      <c r="D51" s="74" t="s">
-        <v>14</v>
-      </c>
-      <c r="E51" s="74" t="s">
-        <v>14</v>
-      </c>
-      <c r="F51" s="74" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" s="74" t="s">
-        <v>14</v>
-      </c>
-      <c r="H51" s="74" t="s">
-        <v>14</v>
-      </c>
-      <c r="I51" s="74" t="s">
-        <v>14</v>
-      </c>
-      <c r="J51" s="75" t="s">
-        <v>14</v>
-      </c>
-      <c r="K51" s="76" t="s">
-        <v>110</v>
-      </c>
-      <c r="L51" s="76" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="52" spans="2:12">
-      <c r="B52" s="77"/>
-      <c r="C52" s="78" t="s">
-        <v>14</v>
-      </c>
-      <c r="D52" s="79" t="s">
-        <v>16</v>
-      </c>
-      <c r="E52" s="79" t="s">
-        <v>14</v>
-      </c>
-      <c r="F52" s="79" t="s">
-        <v>14</v>
-      </c>
-      <c r="G52" s="79" t="s">
-        <v>14</v>
-      </c>
-      <c r="H52" s="79" t="s">
-        <v>14</v>
-      </c>
-      <c r="I52" s="79" t="s">
-        <v>14</v>
-      </c>
-      <c r="J52" s="80" t="s">
-        <v>14</v>
-      </c>
-      <c r="K52" s="81" t="s">
-        <v>111</v>
-      </c>
-      <c r="L52" s="81" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="2:12" ht="17" thickBot="1">
-      <c r="B53" s="82"/>
-      <c r="C53" s="83" t="s">
-        <v>14</v>
-      </c>
-      <c r="D53" s="61" t="s">
-        <v>14</v>
-      </c>
-      <c r="E53" s="61" t="s">
-        <v>16</v>
-      </c>
-      <c r="F53" s="61" t="s">
-        <v>16</v>
-      </c>
-      <c r="G53" s="61" t="s">
-        <v>14</v>
-      </c>
-      <c r="H53" s="61" t="s">
-        <v>14</v>
-      </c>
-      <c r="I53" s="61" t="s">
-        <v>14</v>
-      </c>
-      <c r="J53" s="62" t="s">
-        <v>14</v>
-      </c>
-      <c r="K53" s="84" t="s">
-        <v>50</v>
-      </c>
-      <c r="L53" s="84" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="54" spans="2:12">
-      <c r="B54" s="50">
-        <v>377</v>
-      </c>
-      <c r="C54" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="D54" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="E54" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="F54" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="G54" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="H54" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="I54" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="J54" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="K54" s="47" t="s">
-        <v>46</v>
-      </c>
-      <c r="L54" s="47" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="55" spans="2:12" ht="17" thickBot="1">
-      <c r="B55" s="48"/>
-      <c r="C55" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="D55" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="E55" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="F55" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="G55" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="H55" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="I55" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="J55" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="K55" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="L55" s="23" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="56" spans="2:12" ht="17" thickBot="1">
-      <c r="B56" s="67">
-        <v>378</v>
-      </c>
-      <c r="C56" s="68" t="s">
-        <v>14</v>
-      </c>
-      <c r="D56" s="69" t="s">
-        <v>14</v>
-      </c>
-      <c r="E56" s="69" t="s">
-        <v>14</v>
-      </c>
-      <c r="F56" s="69" t="s">
-        <v>14</v>
-      </c>
-      <c r="G56" s="69" t="s">
-        <v>16</v>
-      </c>
-      <c r="H56" s="69" t="s">
-        <v>16</v>
-      </c>
-      <c r="I56" s="69" t="s">
-        <v>14</v>
-      </c>
-      <c r="J56" s="70" t="s">
-        <v>14</v>
-      </c>
-      <c r="K56" s="67" t="s">
-        <v>53</v>
-      </c>
-      <c r="L56" s="67" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="57" spans="2:12">
-      <c r="B57" s="72">
-        <v>405</v>
-      </c>
-      <c r="C57" s="73" t="s">
-        <v>14</v>
-      </c>
-      <c r="D57" s="85" t="s">
-        <v>21</v>
-      </c>
-      <c r="E57" s="74" t="s">
-        <v>14</v>
-      </c>
-      <c r="F57" s="74" t="s">
-        <v>14</v>
-      </c>
-      <c r="G57" s="74" t="s">
-        <v>14</v>
-      </c>
-      <c r="H57" s="74" t="s">
-        <v>14</v>
-      </c>
-      <c r="I57" s="74" t="s">
-        <v>14</v>
-      </c>
-      <c r="J57" s="75" t="s">
-        <v>14</v>
-      </c>
-      <c r="K57" s="76" t="s">
-        <v>103</v>
-      </c>
-      <c r="L57" s="76"/>
-    </row>
-    <row r="58" spans="2:12">
-      <c r="B58" s="77"/>
-      <c r="C58" s="78" t="s">
-        <v>14</v>
-      </c>
-      <c r="D58" s="85" t="s">
-        <v>18</v>
-      </c>
-      <c r="E58" s="79" t="s">
-        <v>14</v>
-      </c>
-      <c r="F58" s="79" t="s">
-        <v>14</v>
-      </c>
-      <c r="G58" s="79" t="s">
-        <v>14</v>
-      </c>
-      <c r="H58" s="79" t="s">
-        <v>14</v>
-      </c>
-      <c r="I58" s="79" t="s">
-        <v>14</v>
-      </c>
-      <c r="J58" s="80" t="s">
-        <v>14</v>
-      </c>
-      <c r="K58" s="86" t="s">
-        <v>104</v>
-      </c>
-      <c r="L58" s="86"/>
-    </row>
-    <row r="59" spans="2:12">
-      <c r="B59" s="77"/>
-      <c r="C59" s="78" t="s">
-        <v>14</v>
-      </c>
-      <c r="D59" s="79" t="s">
-        <v>14</v>
-      </c>
-      <c r="E59" s="79">
-        <v>24</v>
-      </c>
-      <c r="F59" s="79" t="s">
-        <v>14</v>
-      </c>
-      <c r="G59" s="79" t="s">
-        <v>14</v>
-      </c>
-      <c r="H59" s="79" t="s">
-        <v>14</v>
-      </c>
-      <c r="I59" s="79" t="s">
-        <v>14</v>
-      </c>
-      <c r="J59" s="80" t="s">
-        <v>14</v>
-      </c>
-      <c r="K59" s="81" t="s">
-        <v>105</v>
-      </c>
-      <c r="L59" s="81"/>
-    </row>
-    <row r="60" spans="2:12" ht="17" thickBot="1">
-      <c r="B60" s="82"/>
-      <c r="C60" s="83" t="s">
-        <v>14</v>
-      </c>
-      <c r="D60" s="61" t="s">
-        <v>14</v>
-      </c>
-      <c r="E60" s="61">
-        <v>20</v>
-      </c>
-      <c r="F60" s="61" t="s">
-        <v>14</v>
-      </c>
-      <c r="G60" s="61" t="s">
-        <v>14</v>
-      </c>
-      <c r="H60" s="61" t="s">
-        <v>14</v>
-      </c>
-      <c r="I60" s="61" t="s">
-        <v>14</v>
-      </c>
-      <c r="J60" s="62" t="s">
-        <v>14</v>
-      </c>
-      <c r="K60" s="84" t="s">
-        <v>106</v>
-      </c>
-      <c r="L60" s="84"/>
-    </row>
-    <row r="62" spans="2:12">
-      <c r="B62" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="C62" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="D62" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="K62" s="12" t="s">
-        <v>109</v>
-      </c>
+      <c r="L59" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="B57:B60"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="B3:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B22"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="B23:B39"/>
-    <mergeCell ref="B42:B47"/>
-    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B56:B59"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B19"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="B21:B37"/>
+    <mergeCell ref="B41:B46"/>
+    <mergeCell ref="B48:B49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3682,77 +3760,77 @@
   <sheetData>
     <row r="2" spans="2:36">
       <c r="C2" s="1" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="2:36">
       <c r="B6" s="1" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E6" s="14">
+        <v>138</v>
+      </c>
+      <c r="E6" s="90">
         <v>9</v>
       </c>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14">
+      <c r="F6" s="90"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="90">
         <v>8</v>
       </c>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14">
+      <c r="J6" s="90"/>
+      <c r="K6" s="90"/>
+      <c r="L6" s="90"/>
+      <c r="M6" s="90">
         <v>1</v>
       </c>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14">
+      <c r="N6" s="90"/>
+      <c r="O6" s="90"/>
+      <c r="P6" s="90"/>
+      <c r="Q6" s="90">
         <v>9</v>
       </c>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="14"/>
-      <c r="U6" s="14">
+      <c r="R6" s="90"/>
+      <c r="S6" s="90"/>
+      <c r="T6" s="90"/>
+      <c r="U6" s="90">
         <v>2</v>
       </c>
-      <c r="V6" s="14"/>
-      <c r="W6" s="14"/>
-      <c r="X6" s="14"/>
-      <c r="Y6" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="14"/>
-      <c r="AA6" s="14"/>
-      <c r="AB6" s="14"/>
-      <c r="AC6" s="14">
+      <c r="V6" s="90"/>
+      <c r="W6" s="90"/>
+      <c r="X6" s="90"/>
+      <c r="Y6" s="90">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="90"/>
+      <c r="AA6" s="90"/>
+      <c r="AB6" s="90"/>
+      <c r="AC6" s="90">
         <v>1</v>
       </c>
-      <c r="AD6" s="14"/>
-      <c r="AE6" s="14"/>
-      <c r="AF6" s="14"/>
-      <c r="AG6" s="14">
+      <c r="AD6" s="90"/>
+      <c r="AE6" s="90"/>
+      <c r="AF6" s="90"/>
+      <c r="AG6" s="90">
         <v>3</v>
       </c>
-      <c r="AH6" s="14"/>
-      <c r="AI6" s="14"/>
-      <c r="AJ6" s="14"/>
+      <c r="AH6" s="90"/>
+      <c r="AI6" s="90"/>
+      <c r="AJ6" s="90"/>
     </row>
     <row r="7" spans="2:36">
       <c r="C7" s="6" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="E7" s="4">
         <v>1</v>
@@ -3986,7 +4064,7 @@
     <row r="9" spans="2:36">
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="E9" s="5">
         <v>1</v>
@@ -4016,22 +4094,22 @@
         <v>9</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="R9" s="4" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="S9" s="4" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="T9" s="5">
         <v>10</v>
@@ -4064,22 +4142,22 @@
         <v>19</v>
       </c>
       <c r="AD9" s="4" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="AE9" s="4" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="AF9" s="5" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AG9" s="4" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="AH9" s="4" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="AI9" s="5" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="AJ9" s="5">
         <v>20</v>
@@ -4087,69 +4165,69 @@
     </row>
     <row r="11" spans="2:36">
       <c r="B11" s="1" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="E11" s="14">
+        <v>141</v>
+      </c>
+      <c r="E11" s="90">
         <v>9</v>
       </c>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14">
+      <c r="F11" s="90"/>
+      <c r="G11" s="90"/>
+      <c r="H11" s="90"/>
+      <c r="I11" s="90">
         <v>8</v>
       </c>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14">
-        <v>0</v>
-      </c>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14">
+      <c r="J11" s="90"/>
+      <c r="K11" s="90"/>
+      <c r="L11" s="90"/>
+      <c r="M11" s="90">
+        <v>0</v>
+      </c>
+      <c r="N11" s="90"/>
+      <c r="O11" s="90"/>
+      <c r="P11" s="90"/>
+      <c r="Q11" s="90">
         <v>1</v>
       </c>
-      <c r="R11" s="14"/>
-      <c r="S11" s="14"/>
-      <c r="T11" s="14"/>
-      <c r="U11" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="V11" s="14"/>
-      <c r="W11" s="14"/>
-      <c r="X11" s="14"/>
-      <c r="Y11" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="14"/>
-      <c r="AA11" s="14"/>
-      <c r="AB11" s="14"/>
-      <c r="AC11" s="14">
+      <c r="R11" s="90"/>
+      <c r="S11" s="90"/>
+      <c r="T11" s="90"/>
+      <c r="U11" s="90" t="s">
+        <v>122</v>
+      </c>
+      <c r="V11" s="90"/>
+      <c r="W11" s="90"/>
+      <c r="X11" s="90"/>
+      <c r="Y11" s="90">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="90"/>
+      <c r="AA11" s="90"/>
+      <c r="AB11" s="90"/>
+      <c r="AC11" s="90">
         <v>1</v>
       </c>
-      <c r="AD11" s="14"/>
-      <c r="AE11" s="14"/>
-      <c r="AF11" s="14"/>
-      <c r="AG11" s="14">
+      <c r="AD11" s="90"/>
+      <c r="AE11" s="90"/>
+      <c r="AF11" s="90"/>
+      <c r="AG11" s="90">
         <v>1</v>
       </c>
-      <c r="AH11" s="14"/>
-      <c r="AI11" s="14"/>
-      <c r="AJ11" s="14"/>
+      <c r="AH11" s="90"/>
+      <c r="AI11" s="90"/>
+      <c r="AJ11" s="90"/>
     </row>
     <row r="12" spans="2:36">
       <c r="C12" s="6" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="E12" s="4">
         <v>1</v>
@@ -4407,22 +4485,22 @@
         <v>29</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="R14" s="7" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="S14" s="7" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="T14" s="5">
         <v>30</v>
@@ -4455,22 +4533,22 @@
         <v>39</v>
       </c>
       <c r="AD14" s="7" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="AE14" s="7" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="AF14" s="5" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AG14" s="7" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="AH14" s="7" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="AI14" s="7" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="AJ14" s="5">
         <v>40</v>
@@ -4478,69 +4556,69 @@
     </row>
     <row r="16" spans="2:36">
       <c r="B16" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E16" s="90" t="s">
         <v>145</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14">
+      <c r="F16" s="90"/>
+      <c r="G16" s="90"/>
+      <c r="H16" s="90"/>
+      <c r="I16" s="90">
         <v>4</v>
       </c>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="14">
+      <c r="J16" s="90"/>
+      <c r="K16" s="90"/>
+      <c r="L16" s="90"/>
+      <c r="M16" s="90" t="s">
+        <v>146</v>
+      </c>
+      <c r="N16" s="90"/>
+      <c r="O16" s="90"/>
+      <c r="P16" s="90"/>
+      <c r="Q16" s="90">
         <v>2</v>
       </c>
-      <c r="R16" s="14"/>
-      <c r="S16" s="14"/>
-      <c r="T16" s="14"/>
-      <c r="U16" s="14">
+      <c r="R16" s="90"/>
+      <c r="S16" s="90"/>
+      <c r="T16" s="90"/>
+      <c r="U16" s="90">
         <v>8</v>
       </c>
-      <c r="V16" s="14"/>
-      <c r="W16" s="14"/>
-      <c r="X16" s="14"/>
-      <c r="Y16" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="14"/>
-      <c r="AA16" s="14"/>
-      <c r="AB16" s="14"/>
-      <c r="AC16" s="14">
-        <v>0</v>
-      </c>
-      <c r="AD16" s="14"/>
-      <c r="AE16" s="14"/>
-      <c r="AF16" s="14"/>
-      <c r="AG16" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="AH16" s="14"/>
-      <c r="AI16" s="14"/>
-      <c r="AJ16" s="14"/>
+      <c r="V16" s="90"/>
+      <c r="W16" s="90"/>
+      <c r="X16" s="90"/>
+      <c r="Y16" s="90">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="90"/>
+      <c r="AA16" s="90"/>
+      <c r="AB16" s="90"/>
+      <c r="AC16" s="90">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="90"/>
+      <c r="AE16" s="90"/>
+      <c r="AF16" s="90"/>
+      <c r="AG16" s="90" t="s">
+        <v>146</v>
+      </c>
+      <c r="AH16" s="90"/>
+      <c r="AI16" s="90"/>
+      <c r="AJ16" s="90"/>
     </row>
     <row r="17" spans="2:36">
       <c r="C17" s="6" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="E17" s="4">
         <v>1</v>
@@ -4798,22 +4876,22 @@
         <v>49</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="R19" s="7" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="S19" s="5" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="T19" s="7">
         <v>50</v>
@@ -4846,22 +4924,22 @@
         <v>59</v>
       </c>
       <c r="AD19" s="7" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="AE19" s="7" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="AF19" s="7" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AG19" s="5" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="AH19" s="5" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="AI19" s="7" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="AJ19" s="5">
         <v>60</v>
@@ -4903,62 +4981,62 @@
     </row>
     <row r="21" spans="2:36">
       <c r="B21" s="1" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="N21" s="14"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="14">
+        <v>137</v>
+      </c>
+      <c r="E21" s="90" t="s">
+        <v>121</v>
+      </c>
+      <c r="F21" s="90"/>
+      <c r="G21" s="90"/>
+      <c r="H21" s="90"/>
+      <c r="I21" s="90" t="s">
+        <v>122</v>
+      </c>
+      <c r="J21" s="90"/>
+      <c r="K21" s="90"/>
+      <c r="L21" s="90"/>
+      <c r="M21" s="90" t="s">
+        <v>122</v>
+      </c>
+      <c r="N21" s="90"/>
+      <c r="O21" s="90"/>
+      <c r="P21" s="90"/>
+      <c r="Q21" s="90">
         <v>9</v>
       </c>
-      <c r="R21" s="14"/>
-      <c r="S21" s="14"/>
-      <c r="T21" s="14"/>
-      <c r="U21" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="V21" s="14"/>
-      <c r="W21" s="14"/>
-      <c r="X21" s="14"/>
-      <c r="Y21" s="14">
+      <c r="R21" s="90"/>
+      <c r="S21" s="90"/>
+      <c r="T21" s="90"/>
+      <c r="U21" s="90" t="s">
+        <v>122</v>
+      </c>
+      <c r="V21" s="90"/>
+      <c r="W21" s="90"/>
+      <c r="X21" s="90"/>
+      <c r="Y21" s="90">
         <v>3</v>
       </c>
-      <c r="Z21" s="14"/>
-      <c r="AA21" s="14"/>
-      <c r="AB21" s="14"/>
-      <c r="AC21" s="14">
+      <c r="Z21" s="90"/>
+      <c r="AA21" s="90"/>
+      <c r="AB21" s="90"/>
+      <c r="AC21" s="90">
         <v>4</v>
       </c>
-      <c r="AD21" s="14"/>
-      <c r="AE21" s="14"/>
-      <c r="AF21" s="14"/>
-      <c r="AG21" s="14">
+      <c r="AD21" s="90"/>
+      <c r="AE21" s="90"/>
+      <c r="AF21" s="90"/>
+      <c r="AG21" s="90">
         <v>3</v>
       </c>
-      <c r="AH21" s="14"/>
-      <c r="AI21" s="14"/>
-      <c r="AJ21" s="14"/>
+      <c r="AH21" s="90"/>
+      <c r="AI21" s="90"/>
+      <c r="AJ21" s="90"/>
     </row>
     <row r="22" spans="2:36">
       <c r="C22" s="3"/>
@@ -5219,22 +5297,22 @@
         <v>69</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="O24" s="5" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="P24" s="4" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="Q24" s="5" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="R24" s="4" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="S24" s="4" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="T24" s="5">
         <v>70</v>
@@ -5267,22 +5345,22 @@
         <v>79</v>
       </c>
       <c r="AD24" s="5" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="AE24" s="4" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="AF24" s="4" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="AG24" s="4" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="AH24" s="4" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="AI24" s="5" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="AJ24" s="5">
         <v>80</v>
@@ -5324,62 +5402,62 @@
     </row>
     <row r="26" spans="2:36">
       <c r="B26" s="1" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15">
-        <v>0</v>
-      </c>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="N26" s="15"/>
-      <c r="O26" s="15"/>
-      <c r="P26" s="15"/>
-      <c r="Q26" s="15">
-        <v>0</v>
-      </c>
-      <c r="R26" s="15"/>
-      <c r="S26" s="15"/>
-      <c r="T26" s="15"/>
-      <c r="U26" s="15">
-        <v>0</v>
-      </c>
-      <c r="V26" s="15"/>
-      <c r="W26" s="15"/>
-      <c r="X26" s="15"/>
-      <c r="Y26" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="15"/>
-      <c r="AA26" s="15"/>
-      <c r="AB26" s="15"/>
-      <c r="AC26" s="15">
-        <v>0</v>
-      </c>
-      <c r="AD26" s="15"/>
-      <c r="AE26" s="15"/>
-      <c r="AF26" s="15"/>
-      <c r="AG26" s="15">
-        <v>0</v>
-      </c>
-      <c r="AH26" s="15"/>
-      <c r="AI26" s="15"/>
-      <c r="AJ26" s="15"/>
+        <v>144</v>
+      </c>
+      <c r="E26" s="98" t="s">
+        <v>145</v>
+      </c>
+      <c r="F26" s="98"/>
+      <c r="G26" s="98"/>
+      <c r="H26" s="98"/>
+      <c r="I26" s="98">
+        <v>0</v>
+      </c>
+      <c r="J26" s="98"/>
+      <c r="K26" s="98"/>
+      <c r="L26" s="98"/>
+      <c r="M26" s="98" t="s">
+        <v>122</v>
+      </c>
+      <c r="N26" s="98"/>
+      <c r="O26" s="98"/>
+      <c r="P26" s="98"/>
+      <c r="Q26" s="98">
+        <v>0</v>
+      </c>
+      <c r="R26" s="98"/>
+      <c r="S26" s="98"/>
+      <c r="T26" s="98"/>
+      <c r="U26" s="98">
+        <v>0</v>
+      </c>
+      <c r="V26" s="98"/>
+      <c r="W26" s="98"/>
+      <c r="X26" s="98"/>
+      <c r="Y26" s="98">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="98"/>
+      <c r="AA26" s="98"/>
+      <c r="AB26" s="98"/>
+      <c r="AC26" s="98">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="98"/>
+      <c r="AE26" s="98"/>
+      <c r="AF26" s="98"/>
+      <c r="AG26" s="98">
+        <v>0</v>
+      </c>
+      <c r="AH26" s="98"/>
+      <c r="AI26" s="98"/>
+      <c r="AJ26" s="98"/>
     </row>
     <row r="27" spans="2:36">
       <c r="C27" s="3"/>
@@ -5640,22 +5718,22 @@
         <v>89</v>
       </c>
       <c r="N29" s="7" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="O29" s="5" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="R29" s="7" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="S29" s="7" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="T29" s="7">
         <v>90</v>
@@ -5688,25 +5766,25 @@
         <v>99</v>
       </c>
       <c r="AD29" s="7" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="AE29" s="7" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="AF29" s="7" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="AG29" s="7" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="AH29" s="7" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="AI29" s="7" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="AJ29" s="7" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
     </row>
     <row r="30" spans="2:36">
@@ -5780,24 +5858,24 @@
       <c r="AJ31" s="7"/>
     </row>
     <row r="32" spans="2:36">
-      <c r="B32" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
+      <c r="B32" s="90" t="s">
+        <v>184</v>
+      </c>
+      <c r="C32" s="90"/>
+      <c r="D32" s="90"/>
       <c r="E32" s="7">
         <v>1</v>
       </c>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c r="H32" s="7" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
       <c r="L32" s="7"/>
       <c r="M32" s="7" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="N32" s="7"/>
       <c r="O32" s="7"/>
@@ -5824,45 +5902,45 @@
       <c r="AJ32" s="7"/>
     </row>
     <row r="33" spans="2:36">
-      <c r="B33" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
+      <c r="B33" s="93" t="s">
+        <v>226</v>
+      </c>
+      <c r="C33" s="93"/>
+      <c r="D33" s="93"/>
       <c r="E33" s="7">
         <v>4</v>
       </c>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c r="I33" s="7" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="K33" s="5" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="L33" s="5" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="M33" s="7" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="N33" s="7" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="R33" s="7" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="S33" s="7"/>
       <c r="T33" s="7"/>
@@ -5884,11 +5962,11 @@
       <c r="AJ33" s="7"/>
     </row>
     <row r="34" spans="2:36">
-      <c r="B34" s="18" t="s">
-        <v>196</v>
-      </c>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
+      <c r="B34" s="95" t="s">
+        <v>185</v>
+      </c>
+      <c r="C34" s="95"/>
+      <c r="D34" s="95"/>
       <c r="E34" s="7">
         <v>5</v>
       </c>
@@ -5899,10 +5977,10 @@
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
       <c r="L34" s="1" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="M34" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="N34" s="7"/>
       <c r="O34" s="7"/>
@@ -5929,13 +6007,13 @@
       <c r="AJ34" s="7"/>
     </row>
     <row r="35" spans="2:36">
-      <c r="B35" s="18" t="s">
-        <v>197</v>
-      </c>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
+      <c r="B35" s="95" t="s">
+        <v>186</v>
+      </c>
+      <c r="C35" s="95"/>
+      <c r="D35" s="95"/>
       <c r="E35" s="9" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
@@ -5944,7 +6022,7 @@
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="M35" s="8" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="N35" s="8"/>
       <c r="O35" s="8"/>
@@ -5971,13 +6049,13 @@
       <c r="AJ35" s="8"/>
     </row>
     <row r="36" spans="2:36">
-      <c r="B36" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
+      <c r="B36" s="97" t="s">
+        <v>187</v>
+      </c>
+      <c r="C36" s="97"/>
+      <c r="D36" s="97"/>
       <c r="E36" s="9" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
@@ -6013,11 +6091,11 @@
       <c r="AJ36" s="11"/>
     </row>
     <row r="37" spans="2:36">
-      <c r="B37" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
+      <c r="B37" s="93" t="s">
+        <v>188</v>
+      </c>
+      <c r="C37" s="93"/>
+      <c r="D37" s="93"/>
       <c r="E37" s="7">
         <v>10</v>
       </c>
@@ -6055,11 +6133,11 @@
       <c r="AJ37" s="7"/>
     </row>
     <row r="38" spans="2:36">
-      <c r="B38" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
+      <c r="B38" s="90" t="s">
+        <v>189</v>
+      </c>
+      <c r="C38" s="90"/>
+      <c r="D38" s="90"/>
       <c r="E38" s="7">
         <v>13</v>
       </c>
@@ -6069,7 +6147,7 @@
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
       <c r="M38" s="7" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="N38" s="7"/>
       <c r="O38" s="7"/>
@@ -6096,13 +6174,13 @@
       <c r="AJ38" s="7"/>
     </row>
     <row r="39" spans="2:36">
-      <c r="B39" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
+      <c r="B39" s="90" t="s">
+        <v>190</v>
+      </c>
+      <c r="C39" s="90"/>
+      <c r="D39" s="90"/>
       <c r="E39" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
@@ -6110,7 +6188,7 @@
       <c r="J39" s="7"/>
       <c r="K39" s="7"/>
       <c r="M39" s="7" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="N39" s="7"/>
       <c r="O39" s="7"/>
@@ -6137,444 +6215,463 @@
       <c r="AJ39" s="7"/>
     </row>
     <row r="40" spans="2:36">
-      <c r="B40" s="16" t="s">
-        <v>202</v>
-      </c>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
+      <c r="B40" s="93" t="s">
+        <v>191</v>
+      </c>
+      <c r="C40" s="93"/>
+      <c r="D40" s="93"/>
       <c r="E40" s="2" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="41" spans="2:36">
-      <c r="B41" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
+      <c r="B41" s="92" t="s">
+        <v>183</v>
+      </c>
+      <c r="C41" s="92"/>
+      <c r="D41" s="92"/>
       <c r="E41" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="42" spans="2:36">
-      <c r="B42" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
+      <c r="B42" s="90" t="s">
+        <v>192</v>
+      </c>
+      <c r="C42" s="90"/>
+      <c r="D42" s="90"/>
       <c r="E42" s="2">
         <v>21</v>
       </c>
     </row>
     <row r="43" spans="2:36" ht="30.75" customHeight="1">
-      <c r="B43" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
+      <c r="B43" s="91" t="s">
+        <v>193</v>
+      </c>
+      <c r="C43" s="91"/>
+      <c r="D43" s="91"/>
       <c r="E43" s="2">
         <v>24</v>
       </c>
     </row>
     <row r="44" spans="2:36">
-      <c r="B44" s="14" t="s">
-        <v>205</v>
-      </c>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
+      <c r="B44" s="90" t="s">
+        <v>194</v>
+      </c>
+      <c r="C44" s="90"/>
+      <c r="D44" s="90"/>
       <c r="E44" s="2">
         <v>25</v>
       </c>
     </row>
     <row r="45" spans="2:36">
-      <c r="B45" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
+      <c r="B45" s="90" t="s">
+        <v>195</v>
+      </c>
+      <c r="C45" s="90"/>
+      <c r="D45" s="90"/>
       <c r="E45" s="2">
         <v>30</v>
       </c>
     </row>
     <row r="46" spans="2:36">
-      <c r="B46" s="14" t="s">
-        <v>207</v>
-      </c>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
+      <c r="B46" s="90" t="s">
+        <v>196</v>
+      </c>
+      <c r="C46" s="90"/>
+      <c r="D46" s="90"/>
       <c r="E46" s="2">
         <v>31</v>
       </c>
     </row>
     <row r="47" spans="2:36">
-      <c r="B47" s="20" t="s">
-        <v>208</v>
-      </c>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
+      <c r="B47" s="96" t="s">
+        <v>197</v>
+      </c>
+      <c r="C47" s="96"/>
+      <c r="D47" s="96"/>
       <c r="E47" s="2">
         <v>33</v>
       </c>
     </row>
     <row r="48" spans="2:36">
-      <c r="B48" s="16" t="s">
-        <v>209</v>
-      </c>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
+      <c r="B48" s="93" t="s">
+        <v>198</v>
+      </c>
+      <c r="C48" s="93"/>
+      <c r="D48" s="93"/>
       <c r="E48" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="49" spans="2:5">
-      <c r="B49" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
+      <c r="B49" s="92" t="s">
+        <v>183</v>
+      </c>
+      <c r="C49" s="92"/>
+      <c r="D49" s="92"/>
       <c r="E49" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="50" spans="2:5">
-      <c r="B50" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
+      <c r="B50" s="90" t="s">
+        <v>199</v>
+      </c>
+      <c r="C50" s="90"/>
+      <c r="D50" s="90"/>
       <c r="E50" s="2">
         <v>41</v>
       </c>
     </row>
     <row r="51" spans="2:5">
-      <c r="B51" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
+      <c r="B51" s="90" t="s">
+        <v>200</v>
+      </c>
+      <c r="C51" s="90"/>
+      <c r="D51" s="90"/>
       <c r="E51" s="2">
         <v>42</v>
       </c>
     </row>
     <row r="52" spans="2:5">
-      <c r="B52" s="18" t="s">
-        <v>212</v>
-      </c>
-      <c r="C52" s="18"/>
-      <c r="D52" s="18"/>
+      <c r="B52" s="95" t="s">
+        <v>201</v>
+      </c>
+      <c r="C52" s="95"/>
+      <c r="D52" s="95"/>
       <c r="E52" s="7">
         <v>46</v>
       </c>
     </row>
     <row r="53" spans="2:5">
-      <c r="B53" s="18" t="s">
-        <v>213</v>
-      </c>
-      <c r="C53" s="18"/>
-      <c r="D53" s="18"/>
+      <c r="B53" s="95" t="s">
+        <v>202</v>
+      </c>
+      <c r="C53" s="95"/>
+      <c r="D53" s="95"/>
       <c r="E53" s="7">
         <v>49</v>
       </c>
     </row>
     <row r="54" spans="2:5">
-      <c r="B54" s="18" t="s">
-        <v>214</v>
-      </c>
-      <c r="C54" s="18"/>
-      <c r="D54" s="18"/>
+      <c r="B54" s="95" t="s">
+        <v>203</v>
+      </c>
+      <c r="C54" s="95"/>
+      <c r="D54" s="95"/>
       <c r="E54" s="2" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="55" spans="2:5">
-      <c r="B55" s="18" t="s">
-        <v>215</v>
-      </c>
-      <c r="C55" s="18"/>
-      <c r="D55" s="18"/>
+      <c r="B55" s="95" t="s">
+        <v>204</v>
+      </c>
+      <c r="C55" s="95"/>
+      <c r="D55" s="95"/>
       <c r="E55" s="2" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
     </row>
     <row r="56" spans="2:5" ht="31.5" customHeight="1">
-      <c r="B56" s="22" t="s">
-        <v>216</v>
-      </c>
-      <c r="C56" s="22"/>
-      <c r="D56" s="22"/>
+      <c r="B56" s="94" t="s">
+        <v>205</v>
+      </c>
+      <c r="C56" s="94"/>
+      <c r="D56" s="94"/>
       <c r="E56" s="2" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="57" spans="2:5">
-      <c r="B57" s="14" t="s">
-        <v>217</v>
-      </c>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
+      <c r="B57" s="90" t="s">
+        <v>206</v>
+      </c>
+      <c r="C57" s="90"/>
+      <c r="D57" s="90"/>
       <c r="E57" s="2">
         <v>51</v>
       </c>
     </row>
     <row r="58" spans="2:5">
-      <c r="B58" s="16" t="s">
-        <v>218</v>
-      </c>
-      <c r="C58" s="16"/>
-      <c r="D58" s="16"/>
+      <c r="B58" s="93" t="s">
+        <v>207</v>
+      </c>
+      <c r="C58" s="93"/>
+      <c r="D58" s="93"/>
       <c r="E58" s="2" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
     </row>
     <row r="59" spans="2:5">
-      <c r="B59" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="C59" s="16"/>
-      <c r="D59" s="16"/>
+      <c r="B59" s="93" t="s">
+        <v>208</v>
+      </c>
+      <c r="C59" s="93"/>
+      <c r="D59" s="93"/>
       <c r="E59" s="2" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
     </row>
     <row r="60" spans="2:5">
-      <c r="B60" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="C60" s="19"/>
-      <c r="D60" s="19"/>
+      <c r="B60" s="92" t="s">
+        <v>183</v>
+      </c>
+      <c r="C60" s="92"/>
+      <c r="D60" s="92"/>
       <c r="E60" s="2">
         <v>60</v>
       </c>
     </row>
     <row r="61" spans="2:5">
-      <c r="B61" s="16" t="s">
-        <v>220</v>
-      </c>
-      <c r="C61" s="16"/>
-      <c r="D61" s="16"/>
+      <c r="B61" s="93" t="s">
+        <v>209</v>
+      </c>
+      <c r="C61" s="93"/>
+      <c r="D61" s="93"/>
       <c r="E61" s="2">
         <v>61</v>
       </c>
     </row>
     <row r="62" spans="2:5">
-      <c r="B62" s="16" t="s">
-        <v>221</v>
-      </c>
-      <c r="C62" s="16"/>
-      <c r="D62" s="16"/>
+      <c r="B62" s="93" t="s">
+        <v>210</v>
+      </c>
+      <c r="C62" s="93"/>
+      <c r="D62" s="93"/>
       <c r="E62" s="2">
         <v>62</v>
       </c>
     </row>
     <row r="63" spans="2:5">
-      <c r="B63" s="16" t="s">
-        <v>222</v>
-      </c>
-      <c r="C63" s="16"/>
-      <c r="D63" s="16"/>
+      <c r="B63" s="93" t="s">
+        <v>211</v>
+      </c>
+      <c r="C63" s="93"/>
+      <c r="D63" s="93"/>
       <c r="E63" s="2">
         <v>63</v>
       </c>
     </row>
     <row r="64" spans="2:5">
-      <c r="B64" s="14" t="s">
-        <v>223</v>
-      </c>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
+      <c r="B64" s="90" t="s">
+        <v>212</v>
+      </c>
+      <c r="C64" s="90"/>
+      <c r="D64" s="90"/>
       <c r="E64" s="2">
         <v>65</v>
       </c>
     </row>
     <row r="65" spans="2:5">
-      <c r="B65" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
+      <c r="B65" s="90" t="s">
+        <v>185</v>
+      </c>
+      <c r="C65" s="90"/>
+      <c r="D65" s="90"/>
       <c r="E65" s="2">
         <v>67</v>
       </c>
     </row>
     <row r="66" spans="2:5">
-      <c r="B66" s="14" t="s">
-        <v>224</v>
-      </c>
-      <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
+      <c r="B66" s="90" t="s">
+        <v>213</v>
+      </c>
+      <c r="C66" s="90"/>
+      <c r="D66" s="90"/>
       <c r="E66" s="2">
         <v>69</v>
       </c>
     </row>
     <row r="67" spans="2:5">
-      <c r="B67" s="14" t="s">
-        <v>225</v>
-      </c>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
+      <c r="B67" s="90" t="s">
+        <v>214</v>
+      </c>
+      <c r="C67" s="90"/>
+      <c r="D67" s="90"/>
       <c r="E67" s="2" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
     </row>
     <row r="68" spans="2:5">
-      <c r="B68" s="14" t="s">
-        <v>226</v>
-      </c>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
+      <c r="B68" s="90" t="s">
+        <v>215</v>
+      </c>
+      <c r="C68" s="90"/>
+      <c r="D68" s="90"/>
       <c r="E68" s="2" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
     </row>
     <row r="69" spans="2:5">
-      <c r="B69" s="14" t="s">
-        <v>227</v>
-      </c>
-      <c r="C69" s="14"/>
-      <c r="D69" s="14"/>
+      <c r="B69" s="90" t="s">
+        <v>216</v>
+      </c>
+      <c r="C69" s="90"/>
+      <c r="D69" s="90"/>
       <c r="E69" s="7">
         <v>70</v>
       </c>
     </row>
     <row r="70" spans="2:5">
-      <c r="B70" s="14" t="s">
-        <v>228</v>
-      </c>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
+      <c r="B70" s="90" t="s">
+        <v>217</v>
+      </c>
+      <c r="C70" s="90"/>
+      <c r="D70" s="90"/>
       <c r="E70" s="9">
         <v>71</v>
       </c>
     </row>
     <row r="71" spans="2:5">
-      <c r="B71" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
+      <c r="B71" s="90" t="s">
+        <v>218</v>
+      </c>
+      <c r="C71" s="90"/>
+      <c r="D71" s="90"/>
       <c r="E71" s="9">
         <v>73</v>
       </c>
     </row>
     <row r="72" spans="2:5">
-      <c r="B72" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="C72" s="14"/>
-      <c r="D72" s="14"/>
+      <c r="B72" s="90" t="s">
+        <v>219</v>
+      </c>
+      <c r="C72" s="90"/>
+      <c r="D72" s="90"/>
       <c r="E72" s="7">
         <v>77</v>
       </c>
     </row>
     <row r="73" spans="2:5">
-      <c r="B73" s="14" t="s">
-        <v>231</v>
-      </c>
-      <c r="C73" s="14"/>
-      <c r="D73" s="14"/>
+      <c r="B73" s="90" t="s">
+        <v>220</v>
+      </c>
+      <c r="C73" s="90"/>
+      <c r="D73" s="90"/>
       <c r="E73" s="7">
         <v>78</v>
       </c>
     </row>
     <row r="74" spans="2:5">
-      <c r="B74" s="14" t="s">
-        <v>232</v>
-      </c>
-      <c r="C74" s="14"/>
-      <c r="D74" s="14"/>
+      <c r="B74" s="90" t="s">
+        <v>221</v>
+      </c>
+      <c r="C74" s="90"/>
+      <c r="D74" s="90"/>
       <c r="E74" s="7" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
     </row>
     <row r="75" spans="2:5">
-      <c r="B75" s="14" t="s">
-        <v>233</v>
-      </c>
-      <c r="C75" s="14"/>
-      <c r="D75" s="14"/>
+      <c r="B75" s="90" t="s">
+        <v>222</v>
+      </c>
+      <c r="C75" s="90"/>
+      <c r="D75" s="90"/>
       <c r="E75" s="2" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
     </row>
     <row r="76" spans="2:5">
-      <c r="B76" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="C76" s="19"/>
-      <c r="D76" s="19"/>
+      <c r="B76" s="92" t="s">
+        <v>183</v>
+      </c>
+      <c r="C76" s="92"/>
+      <c r="D76" s="92"/>
       <c r="E76" s="2">
         <v>80</v>
       </c>
     </row>
     <row r="77" spans="2:5" ht="32.25" customHeight="1">
-      <c r="B77" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="C77" s="21"/>
-      <c r="D77" s="21"/>
+      <c r="B77" s="91" t="s">
+        <v>223</v>
+      </c>
+      <c r="C77" s="91"/>
+      <c r="D77" s="91"/>
       <c r="E77" s="2">
         <v>81</v>
       </c>
     </row>
     <row r="78" spans="2:5" ht="32.25" customHeight="1">
-      <c r="B78" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="C78" s="21"/>
-      <c r="D78" s="21"/>
+      <c r="B78" s="91" t="s">
+        <v>223</v>
+      </c>
+      <c r="C78" s="91"/>
+      <c r="D78" s="91"/>
       <c r="E78" s="2">
         <v>82</v>
       </c>
     </row>
     <row r="79" spans="2:5">
-      <c r="B79" s="14" t="s">
-        <v>235</v>
-      </c>
-      <c r="C79" s="14"/>
-      <c r="D79" s="14"/>
+      <c r="B79" s="90" t="s">
+        <v>224</v>
+      </c>
+      <c r="C79" s="90"/>
+      <c r="D79" s="90"/>
       <c r="E79" s="2">
         <v>89</v>
       </c>
     </row>
     <row r="80" spans="2:5">
-      <c r="B80" s="14" t="s">
-        <v>236</v>
-      </c>
-      <c r="C80" s="14"/>
-      <c r="D80" s="14"/>
+      <c r="B80" s="90" t="s">
+        <v>225</v>
+      </c>
+      <c r="C80" s="90"/>
+      <c r="D80" s="90"/>
       <c r="E80" s="2" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="89">
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="AC6:AF6"/>
+    <mergeCell ref="AG6:AJ6"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="Q21:T21"/>
+    <mergeCell ref="U21:X21"/>
+    <mergeCell ref="Y21:AB21"/>
+    <mergeCell ref="AC21:AF21"/>
+    <mergeCell ref="AG21:AJ21"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="M6:P6"/>
+    <mergeCell ref="Q6:T6"/>
+    <mergeCell ref="U6:X6"/>
+    <mergeCell ref="Y6:AB6"/>
+    <mergeCell ref="Y26:AB26"/>
+    <mergeCell ref="AC16:AF16"/>
+    <mergeCell ref="AG16:AJ16"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="M16:P16"/>
+    <mergeCell ref="Q16:T16"/>
+    <mergeCell ref="U16:X16"/>
+    <mergeCell ref="Y16:AB16"/>
+    <mergeCell ref="Y11:AB11"/>
+    <mergeCell ref="AC11:AF11"/>
+    <mergeCell ref="AG11:AJ11"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="Q11:T11"/>
+    <mergeCell ref="U11:X11"/>
+    <mergeCell ref="AC26:AF26"/>
+    <mergeCell ref="AG26:AJ26"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="Q26:T26"/>
+    <mergeCell ref="U26:X26"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B36:D36"/>
     <mergeCell ref="B35:D35"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="B33:D33"/>
@@ -6591,52 +6688,33 @@
     <mergeCell ref="B44:D44"/>
     <mergeCell ref="B43:D43"/>
     <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="Y11:AB11"/>
-    <mergeCell ref="AC11:AF11"/>
-    <mergeCell ref="AG11:AJ11"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="M11:P11"/>
-    <mergeCell ref="Q11:T11"/>
-    <mergeCell ref="U11:X11"/>
-    <mergeCell ref="AC26:AF26"/>
-    <mergeCell ref="AG26:AJ26"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="Q26:T26"/>
-    <mergeCell ref="U26:X26"/>
-    <mergeCell ref="Y26:AB26"/>
-    <mergeCell ref="AC16:AF16"/>
-    <mergeCell ref="AG16:AJ16"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="M16:P16"/>
-    <mergeCell ref="Q16:T16"/>
-    <mergeCell ref="U16:X16"/>
-    <mergeCell ref="Y16:AB16"/>
-    <mergeCell ref="AC6:AF6"/>
-    <mergeCell ref="AG6:AJ6"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="Q21:T21"/>
-    <mergeCell ref="U21:X21"/>
-    <mergeCell ref="Y21:AB21"/>
-    <mergeCell ref="AC21:AF21"/>
-    <mergeCell ref="AG21:AJ21"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="M6:P6"/>
-    <mergeCell ref="Q6:T6"/>
-    <mergeCell ref="U6:X6"/>
-    <mergeCell ref="Y6:AB6"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="B71:D71"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Canbus Decode.xlsx
+++ b/Canbus Decode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Marcellatwin/Documents/GitHub/honda-canbus-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{952AD2C6-92DE-6C47-BE15-9CD09DAEB3F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F90EA8CA-9539-E346-A086-81B5859F0B39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -739,9 +739,6 @@
     <t>O5</t>
   </si>
   <si>
-    <t>Brake pedal amount</t>
-  </si>
-  <si>
     <t>00 66 when off brake, 02 14 when pushing HARD</t>
   </si>
   <si>
@@ -770,6 +767,9 @@
   </si>
   <si>
     <t>00 when OFF throttle, FF when fully ON</t>
+  </si>
+  <si>
+    <t>Brake pedal ammount</t>
   </si>
 </sst>
 </file>
@@ -1177,7 +1177,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1257,9 +1257,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1290,15 +1287,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1338,158 +1326,158 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1807,8 +1795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:M59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -1858,308 +1846,308 @@
       </c>
     </row>
     <row r="3" spans="2:13">
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" s="49" t="s">
+      <c r="E3" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="45" t="s">
+        <v>241</v>
+      </c>
+      <c r="L3" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" s="15"/>
+    </row>
+    <row r="4" spans="2:13">
+      <c r="B4" s="88"/>
+      <c r="C4" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="49" t="s">
+        <v>238</v>
+      </c>
+      <c r="L4" s="49" t="s">
         <v>242</v>
       </c>
-      <c r="L3" s="49" t="s">
-        <v>31</v>
-      </c>
-      <c r="M3" s="15"/>
-    </row>
-    <row r="4" spans="2:13">
-      <c r="B4" s="86"/>
-      <c r="C4" s="66" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="51" t="s">
+      <c r="M4" s="15"/>
+    </row>
+    <row r="5" spans="2:13">
+      <c r="B5" s="88"/>
+      <c r="C5" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="H5" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="73" t="s">
+        <v>243</v>
+      </c>
+      <c r="L5" s="73" t="s">
+        <v>244</v>
+      </c>
+      <c r="M5" s="15"/>
+    </row>
+    <row r="6" spans="2:13">
+      <c r="B6" s="89"/>
+      <c r="C6" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="74" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" s="76"/>
+      <c r="M6" s="15"/>
+    </row>
+    <row r="7" spans="2:13">
+      <c r="B7" s="89"/>
+      <c r="C7" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="74" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="74" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="76" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" s="76"/>
+      <c r="M7" s="15"/>
+    </row>
+    <row r="8" spans="2:13" ht="17" thickBot="1">
+      <c r="B8" s="90"/>
+      <c r="C8" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="60" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="61" t="s">
+        <v>42</v>
+      </c>
+      <c r="L8" s="61"/>
+      <c r="M8" s="15"/>
+    </row>
+    <row r="9" spans="2:13">
+      <c r="B9" s="91">
+        <v>158</v>
+      </c>
+      <c r="C9" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="53" t="s">
-        <v>239</v>
-      </c>
-      <c r="L4" s="53" t="s">
-        <v>243</v>
-      </c>
-      <c r="M4" s="15"/>
-    </row>
-    <row r="5" spans="2:13">
-      <c r="B5" s="86"/>
-      <c r="C5" s="99" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="99" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="99" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="99" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="100" t="s">
+      <c r="D9" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="99" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="99" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="99" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="101" t="s">
-        <v>244</v>
-      </c>
-      <c r="L5" s="101" t="s">
-        <v>245</v>
-      </c>
-      <c r="M5" s="15"/>
-    </row>
-    <row r="6" spans="2:13">
-      <c r="B6" s="87"/>
-      <c r="C6" s="99" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="99" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="99" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="99" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="99" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="102" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="102" t="s">
-        <v>11</v>
-      </c>
-      <c r="J6" s="103" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" s="101" t="s">
-        <v>24</v>
-      </c>
-      <c r="L6" s="104"/>
-      <c r="M6" s="15"/>
-    </row>
-    <row r="7" spans="2:13">
-      <c r="B7" s="87"/>
-      <c r="C7" s="99" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="99" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="99" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="99" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="99" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="102" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" s="102" t="s">
-        <v>26</v>
-      </c>
-      <c r="J7" s="103" t="s">
-        <v>14</v>
-      </c>
-      <c r="K7" s="104" t="s">
-        <v>25</v>
-      </c>
-      <c r="L7" s="104"/>
-      <c r="M7" s="15"/>
-    </row>
-    <row r="8" spans="2:13" ht="17" thickBot="1">
-      <c r="B8" s="88"/>
-      <c r="C8" s="67" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="67" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="67" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="67" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="67" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="68" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="68" t="s">
-        <v>26</v>
-      </c>
-      <c r="J8" s="69" t="s">
-        <v>14</v>
-      </c>
-      <c r="K8" s="70" t="s">
-        <v>42</v>
-      </c>
-      <c r="L8" s="70"/>
-      <c r="M8" s="15"/>
-    </row>
-    <row r="9" spans="2:13">
-      <c r="B9" s="89">
-        <v>158</v>
-      </c>
-      <c r="C9" s="27" t="s">
+      <c r="E9" s="68" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="68" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="H9" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="28" t="s">
+      <c r="I9" s="68" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="69" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" s="70" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" ht="17" thickBot="1">
+      <c r="B10" s="86"/>
+      <c r="C10" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="28" t="s">
+      <c r="J10" s="60" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="L10" s="61"/>
+    </row>
+    <row r="11" spans="2:13">
+      <c r="B11" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="K9" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="L9" s="30" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" ht="17" thickBot="1">
-      <c r="B10" s="84"/>
-      <c r="C10" s="71" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="67" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="67" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="67" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="67" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="67" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="67" t="s">
+      <c r="D11" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="69" t="s">
-        <v>14</v>
-      </c>
-      <c r="K10" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="L10" s="70"/>
-    </row>
-    <row r="11" spans="2:13">
-      <c r="B11" s="83" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="33">
+      <c r="E11" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="32">
         <v>80</v>
       </c>
-      <c r="H11" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="K11" s="35" t="s">
+      <c r="H11" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="L11" s="35" t="s">
+      <c r="L11" s="34" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="12" spans="2:13">
-      <c r="B12" s="89"/>
+      <c r="B12" s="91"/>
       <c r="C12" s="18" t="s">
         <v>16</v>
       </c>
@@ -2190,7 +2178,7 @@
       <c r="L12" s="20"/>
     </row>
     <row r="13" spans="2:13">
-      <c r="B13" s="89"/>
+      <c r="B13" s="91"/>
       <c r="C13" s="18" t="s">
         <v>16</v>
       </c>
@@ -2221,7 +2209,7 @@
       <c r="L13" s="20"/>
     </row>
     <row r="14" spans="2:13">
-      <c r="B14" s="89"/>
+      <c r="B14" s="91"/>
       <c r="C14" s="18" t="s">
         <v>16</v>
       </c>
@@ -2252,7 +2240,7 @@
       <c r="L14" s="20"/>
     </row>
     <row r="15" spans="2:13">
-      <c r="B15" s="89"/>
+      <c r="B15" s="91"/>
       <c r="C15" s="18" t="s">
         <v>16</v>
       </c>
@@ -2283,7 +2271,7 @@
       <c r="L15" s="20"/>
     </row>
     <row r="16" spans="2:13">
-      <c r="B16" s="89"/>
+      <c r="B16" s="91"/>
       <c r="C16" s="18" t="s">
         <v>16</v>
       </c>
@@ -2314,7 +2302,7 @@
       <c r="L16" s="20"/>
     </row>
     <row r="17" spans="2:12">
-      <c r="B17" s="89"/>
+      <c r="B17" s="91"/>
       <c r="C17" s="19" t="s">
         <v>14</v>
       </c>
@@ -2345,60 +2333,60 @@
       <c r="L17" s="20"/>
     </row>
     <row r="18" spans="2:12">
-      <c r="B18" s="89"/>
-      <c r="C18" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="51">
+      <c r="B18" s="91"/>
+      <c r="C18" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="47">
         <v>48</v>
       </c>
-      <c r="H18" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="I18" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="J18" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="K18" s="53" t="s">
+      <c r="H18" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="J18" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="K18" s="49" t="s">
         <v>43</v>
       </c>
       <c r="L18" s="20"/>
     </row>
     <row r="19" spans="2:12" ht="17" thickBot="1">
-      <c r="B19" s="89"/>
-      <c r="C19" s="59" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="59" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="59" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="59" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="59">
+      <c r="B19" s="91"/>
+      <c r="C19" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="54">
         <v>83</v>
       </c>
-      <c r="H19" s="59" t="s">
-        <v>14</v>
-      </c>
-      <c r="I19" s="59">
+      <c r="H19" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" s="54">
         <v>20</v>
       </c>
-      <c r="J19" s="59" t="s">
+      <c r="J19" s="54" t="s">
         <v>14</v>
       </c>
       <c r="K19" s="23" t="s">
@@ -2407,77 +2395,77 @@
       <c r="L19" s="23"/>
     </row>
     <row r="20" spans="2:12" s="14" customFormat="1" ht="17" thickBot="1">
-      <c r="B20" s="61" t="s">
-        <v>241</v>
-      </c>
-      <c r="C20" s="62" t="s">
+      <c r="B20" s="78" t="s">
+        <v>240</v>
+      </c>
+      <c r="C20" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="63" t="s">
+      <c r="D20" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="63" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="63" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" s="63" t="s">
-        <v>14</v>
-      </c>
-      <c r="H20" s="63" t="s">
-        <v>14</v>
-      </c>
-      <c r="I20" s="63" t="s">
-        <v>14</v>
-      </c>
-      <c r="J20" s="64" t="s">
-        <v>14</v>
-      </c>
-      <c r="K20" s="61" t="s">
-        <v>240</v>
-      </c>
-      <c r="L20" s="61" t="s">
-        <v>236</v>
+      <c r="E20" s="80" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="80" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="80" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="80" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" s="80" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20" s="81" t="s">
+        <v>14</v>
+      </c>
+      <c r="K20" s="78" t="s">
+        <v>245</v>
+      </c>
+      <c r="L20" s="78" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="21" spans="2:12">
-      <c r="B21" s="89" t="s">
+      <c r="B21" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="60" t="s">
+      <c r="C21" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="D21" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="I21" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="J21" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="K21" s="35" t="s">
+      <c r="D21" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="J21" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="K21" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="L21" s="35" t="s">
-        <v>238</v>
+      <c r="L21" s="34" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="22" spans="2:12">
-      <c r="B22" s="89"/>
+      <c r="B22" s="91"/>
       <c r="C22" s="21" t="s">
         <v>80</v>
       </c>
@@ -2506,11 +2494,11 @@
         <v>55</v>
       </c>
       <c r="L22" s="20" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="23" spans="2:12">
-      <c r="B23" s="89"/>
+      <c r="B23" s="91"/>
       <c r="C23" s="21" t="s">
         <v>81</v>
       </c>
@@ -2539,11 +2527,11 @@
         <v>12</v>
       </c>
       <c r="L23" s="20" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="24" spans="2:12">
-      <c r="B24" s="89"/>
+      <c r="B24" s="91"/>
       <c r="C24" s="21" t="s">
         <v>60</v>
       </c>
@@ -2572,11 +2560,11 @@
         <v>13</v>
       </c>
       <c r="L24" s="20" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="25" spans="2:12">
-      <c r="B25" s="89"/>
+      <c r="B25" s="91"/>
       <c r="C25" s="21" t="s">
         <v>82</v>
       </c>
@@ -2605,11 +2593,11 @@
         <v>22</v>
       </c>
       <c r="L25" s="20" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="26" spans="2:12">
-      <c r="B26" s="89"/>
+      <c r="B26" s="91"/>
       <c r="C26" s="21" t="s">
         <v>83</v>
       </c>
@@ -2638,11 +2626,11 @@
         <v>23</v>
       </c>
       <c r="L26" s="20" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="27" spans="2:12">
-      <c r="B27" s="89"/>
+      <c r="B27" s="91"/>
       <c r="C27" s="21" t="s">
         <v>84</v>
       </c>
@@ -2671,11 +2659,11 @@
         <v>12</v>
       </c>
       <c r="L27" s="20" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="28" spans="2:12">
-      <c r="B28" s="89"/>
+      <c r="B28" s="91"/>
       <c r="C28" s="21" t="s">
         <v>85</v>
       </c>
@@ -2704,33 +2692,33 @@
         <v>13</v>
       </c>
       <c r="L28" s="20" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="29" spans="2:12">
-      <c r="B29" s="89"/>
-      <c r="C29" s="50" t="s">
+      <c r="B29" s="91"/>
+      <c r="C29" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="D29" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="E29" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="H29" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="I29" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="J29" s="52" t="s">
+      <c r="D29" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="I29" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="J29" s="48" t="s">
         <v>14</v>
       </c>
       <c r="K29" s="15" t="s">
@@ -2739,91 +2727,91 @@
       <c r="L29" s="20"/>
     </row>
     <row r="30" spans="2:12">
-      <c r="B30" s="89"/>
-      <c r="C30" s="50" t="s">
+      <c r="B30" s="91"/>
+      <c r="C30" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="D30" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="E30" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="F30" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="H30" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="I30" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="J30" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="K30" s="53" t="s">
+      <c r="D30" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="I30" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="J30" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="K30" s="49" t="s">
         <v>90</v>
       </c>
       <c r="L30" s="20"/>
     </row>
     <row r="31" spans="2:12">
-      <c r="B31" s="89"/>
-      <c r="C31" s="50" t="s">
+      <c r="B31" s="91"/>
+      <c r="C31" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="D31" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="E31" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="F31" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="H31" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="I31" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="J31" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="K31" s="53" t="s">
+      <c r="D31" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="H31" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="I31" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="J31" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="K31" s="49" t="s">
         <v>92</v>
       </c>
       <c r="L31" s="20"/>
     </row>
     <row r="32" spans="2:12">
-      <c r="B32" s="89"/>
-      <c r="C32" s="50" t="s">
+      <c r="B32" s="91"/>
+      <c r="C32" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="D32" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="E32" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="F32" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="H32" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="I32" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="J32" s="52" t="s">
+      <c r="D32" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="I32" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="J32" s="48" t="s">
         <v>14</v>
       </c>
       <c r="K32" s="15" t="s">
@@ -2832,69 +2820,69 @@
       <c r="L32" s="20"/>
     </row>
     <row r="33" spans="2:13">
-      <c r="B33" s="89"/>
-      <c r="C33" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="D33" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="E33" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="F33" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="H33" s="51" t="s">
+      <c r="B33" s="91"/>
+      <c r="C33" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="H33" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="I33" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="J33" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="K33" s="53" t="s">
+      <c r="I33" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="J33" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="K33" s="49" t="s">
         <v>87</v>
       </c>
       <c r="L33" s="20"/>
     </row>
     <row r="34" spans="2:13">
-      <c r="B34" s="89"/>
-      <c r="C34" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="D34" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="E34" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="F34" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="H34" s="51" t="s">
+      <c r="B34" s="91"/>
+      <c r="C34" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="H34" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="I34" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="J34" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="K34" s="53" t="s">
+      <c r="I34" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="J34" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="K34" s="49" t="s">
         <v>88</v>
       </c>
       <c r="L34" s="20"/>
     </row>
     <row r="35" spans="2:13">
-      <c r="B35" s="89"/>
+      <c r="B35" s="91"/>
       <c r="C35" s="21" t="s">
         <v>14</v>
       </c>
@@ -2927,7 +2915,7 @@
       </c>
     </row>
     <row r="36" spans="2:13">
-      <c r="B36" s="89"/>
+      <c r="B36" s="91"/>
       <c r="C36" s="21" t="s">
         <v>14</v>
       </c>
@@ -2960,29 +2948,29 @@
       </c>
     </row>
     <row r="37" spans="2:13" ht="17" thickBot="1">
-      <c r="B37" s="84"/>
-      <c r="C37" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="D37" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="E37" s="36" t="s">
+      <c r="B37" s="86"/>
+      <c r="C37" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="F37" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="G37" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="H37" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="I37" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="J37" s="37" t="s">
+      <c r="F37" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="G37" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="H37" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="I37" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="J37" s="36" t="s">
         <v>14</v>
       </c>
       <c r="K37" s="16" t="s">
@@ -2991,103 +2979,103 @@
       <c r="L37" s="16"/>
     </row>
     <row r="38" spans="2:13" s="14" customFormat="1" ht="17" thickBot="1">
-      <c r="B38" s="54" t="s">
+      <c r="B38" s="63" t="s">
         <v>98</v>
       </c>
-      <c r="C38" s="38" t="s">
+      <c r="C38" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="D38" s="39" t="s">
+      <c r="D38" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="E38" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="F38" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="H38" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="I38" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="J38" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="K38" s="54" t="s">
-        <v>235</v>
-      </c>
-      <c r="L38" s="54"/>
+      <c r="E38" s="65" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" s="65" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" s="65" t="s">
+        <v>14</v>
+      </c>
+      <c r="H38" s="65" t="s">
+        <v>14</v>
+      </c>
+      <c r="I38" s="65" t="s">
+        <v>14</v>
+      </c>
+      <c r="J38" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="K38" s="78" t="s">
+        <v>239</v>
+      </c>
+      <c r="L38" s="63"/>
     </row>
     <row r="39" spans="2:13" ht="17" thickBot="1">
-      <c r="B39" s="72" t="s">
+      <c r="B39" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="C39" s="73" t="s">
+      <c r="C39" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="D39" s="74" t="s">
+      <c r="D39" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="E39" s="74" t="s">
+      <c r="E39" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="F39" s="74" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" s="74" t="s">
-        <v>14</v>
-      </c>
-      <c r="H39" s="74" t="s">
-        <v>14</v>
-      </c>
-      <c r="I39" s="74" t="s">
-        <v>14</v>
-      </c>
-      <c r="J39" s="75" t="s">
-        <v>14</v>
-      </c>
-      <c r="K39" s="72" t="s">
+      <c r="F39" s="65" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" s="65" t="s">
+        <v>14</v>
+      </c>
+      <c r="H39" s="65" t="s">
+        <v>14</v>
+      </c>
+      <c r="I39" s="65" t="s">
+        <v>14</v>
+      </c>
+      <c r="J39" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="K39" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="L39" s="72"/>
+      <c r="L39" s="63"/>
     </row>
     <row r="40" spans="2:13" ht="17" thickBot="1">
-      <c r="B40" s="41">
+      <c r="B40" s="37">
         <v>255</v>
       </c>
-      <c r="C40" s="42" t="s">
+      <c r="C40" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="D40" s="43" t="s">
+      <c r="D40" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="E40" s="43" t="s">
+      <c r="E40" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="F40" s="43" t="s">
+      <c r="F40" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="G40" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="H40" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="I40" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="J40" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="K40" s="41" t="s">
+      <c r="G40" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="H40" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="I40" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="J40" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="K40" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="L40" s="41" t="s">
+      <c r="L40" s="37" t="s">
         <v>40</v>
       </c>
       <c r="M40" s="13" t="s">
@@ -3095,7 +3083,7 @@
       </c>
     </row>
     <row r="41" spans="2:13">
-      <c r="B41" s="83">
+      <c r="B41" s="85">
         <v>294</v>
       </c>
       <c r="C41" s="21" t="s">
@@ -3122,13 +3110,13 @@
       <c r="J41" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="K41" s="30" t="s">
+      <c r="K41" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="L41" s="30"/>
+      <c r="L41" s="29"/>
     </row>
     <row r="42" spans="2:13">
-      <c r="B42" s="89"/>
+      <c r="B42" s="91"/>
       <c r="C42" s="21" t="s">
         <v>63</v>
       </c>
@@ -3159,7 +3147,7 @@
       <c r="L42" s="20"/>
     </row>
     <row r="43" spans="2:13">
-      <c r="B43" s="89"/>
+      <c r="B43" s="91"/>
       <c r="C43" s="21" t="s">
         <v>70</v>
       </c>
@@ -3190,7 +3178,7 @@
       <c r="L43" s="20"/>
     </row>
     <row r="44" spans="2:13">
-      <c r="B44" s="89"/>
+      <c r="B44" s="91"/>
       <c r="C44" s="21" t="s">
         <v>71</v>
       </c>
@@ -3221,7 +3209,7 @@
       <c r="L44" s="20"/>
     </row>
     <row r="45" spans="2:13">
-      <c r="B45" s="89"/>
+      <c r="B45" s="91"/>
       <c r="C45" s="21" t="s">
         <v>72</v>
       </c>
@@ -3252,29 +3240,29 @@
       <c r="L45" s="20"/>
     </row>
     <row r="46" spans="2:13" ht="17" thickBot="1">
-      <c r="B46" s="84"/>
-      <c r="C46" s="31" t="s">
+      <c r="B46" s="86"/>
+      <c r="C46" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="D46" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="E46" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="F46" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="G46" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="H46" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="I46" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="J46" s="37" t="s">
+      <c r="D46" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="E46" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="F46" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="G46" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="H46" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="I46" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="J46" s="36" t="s">
         <v>14</v>
       </c>
       <c r="K46" s="16" t="s">
@@ -3283,75 +3271,75 @@
       <c r="L46" s="16"/>
     </row>
     <row r="47" spans="2:13" ht="17" thickBot="1">
-      <c r="B47" s="41">
+      <c r="B47" s="37">
         <v>309</v>
       </c>
-      <c r="C47" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="D47" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="E47" s="43" t="s">
+      <c r="C47" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="F47" s="43" t="s">
+      <c r="F47" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="G47" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="H47" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="I47" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="J47" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="K47" s="41" t="s">
+      <c r="G47" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="H47" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="I47" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="J47" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="K47" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="L47" s="41" t="s">
+      <c r="L47" s="37" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="48" spans="2:13">
-      <c r="B48" s="83">
+      <c r="B48" s="85">
         <v>320</v>
       </c>
-      <c r="C48" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="D48" s="45" t="s">
+      <c r="C48" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="E48" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="F48" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G48" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="H48" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="I48" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="J48" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="K48" s="30" t="s">
+      <c r="E48" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F48" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G48" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="H48" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="I48" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="J48" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="K48" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="L48" s="30"/>
+      <c r="L48" s="29"/>
     </row>
     <row r="49" spans="2:12" ht="17" thickBot="1">
-      <c r="B49" s="84"/>
+      <c r="B49" s="86"/>
       <c r="C49" s="25" t="s">
         <v>14</v>
       </c>
@@ -3382,144 +3370,144 @@
       <c r="L49" s="16"/>
     </row>
     <row r="50" spans="2:12">
-      <c r="B50" s="80">
+      <c r="B50" s="82">
         <v>324</v>
       </c>
-      <c r="C50" s="46" t="s">
+      <c r="C50" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="D50" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="E50" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="F50" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="G50" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="H50" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="I50" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="J50" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="K50" s="49" t="s">
+      <c r="D50" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="E50" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="F50" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="G50" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="H50" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="I50" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="J50" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="K50" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="L50" s="49" t="s">
+      <c r="L50" s="45" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="51" spans="2:12">
-      <c r="B51" s="81"/>
-      <c r="C51" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="D51" s="51" t="s">
+      <c r="B51" s="83"/>
+      <c r="C51" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="D51" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="E51" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="F51" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="H51" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="I51" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="J51" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="K51" s="53" t="s">
+      <c r="E51" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="F51" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="G51" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="H51" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="I51" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="J51" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="K51" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="L51" s="53" t="s">
+      <c r="L51" s="49" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="52" spans="2:12" ht="17" thickBot="1">
-      <c r="B52" s="82"/>
-      <c r="C52" s="71" t="s">
-        <v>14</v>
-      </c>
-      <c r="D52" s="67" t="s">
-        <v>14</v>
-      </c>
-      <c r="E52" s="67" t="s">
+      <c r="B52" s="84"/>
+      <c r="C52" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="D52" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="E52" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="F52" s="67" t="s">
+      <c r="F52" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="G52" s="67" t="s">
-        <v>14</v>
-      </c>
-      <c r="H52" s="67" t="s">
-        <v>14</v>
-      </c>
-      <c r="I52" s="67" t="s">
-        <v>14</v>
-      </c>
-      <c r="J52" s="69" t="s">
-        <v>14</v>
-      </c>
-      <c r="K52" s="70" t="s">
+      <c r="G52" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="H52" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="I52" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="J52" s="60" t="s">
+        <v>14</v>
+      </c>
+      <c r="K52" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="L52" s="70" t="s">
+      <c r="L52" s="61" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="53" spans="2:12">
-      <c r="B53" s="83">
+      <c r="B53" s="85">
         <v>377</v>
       </c>
-      <c r="C53" s="76" t="s">
-        <v>14</v>
-      </c>
-      <c r="D53" s="77" t="s">
-        <v>14</v>
-      </c>
-      <c r="E53" s="77" t="s">
-        <v>14</v>
-      </c>
-      <c r="F53" s="77" t="s">
-        <v>14</v>
-      </c>
-      <c r="G53" s="77" t="s">
+      <c r="C53" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="D53" s="68" t="s">
+        <v>14</v>
+      </c>
+      <c r="E53" s="68" t="s">
+        <v>14</v>
+      </c>
+      <c r="F53" s="68" t="s">
+        <v>14</v>
+      </c>
+      <c r="G53" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="H53" s="77" t="s">
-        <v>14</v>
-      </c>
-      <c r="I53" s="77" t="s">
-        <v>14</v>
-      </c>
-      <c r="J53" s="78" t="s">
-        <v>14</v>
-      </c>
-      <c r="K53" s="79" t="s">
+      <c r="H53" s="68" t="s">
+        <v>14</v>
+      </c>
+      <c r="I53" s="68" t="s">
+        <v>14</v>
+      </c>
+      <c r="J53" s="69" t="s">
+        <v>14</v>
+      </c>
+      <c r="K53" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="L53" s="79" t="s">
+      <c r="L53" s="70" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="54" spans="2:12" ht="17" thickBot="1">
-      <c r="B54" s="84"/>
-      <c r="C54" s="31" t="s">
+      <c r="B54" s="86"/>
+      <c r="C54" s="30" t="s">
         <v>16</v>
       </c>
       <c r="D54" s="25" t="s">
@@ -3551,165 +3539,165 @@
       </c>
     </row>
     <row r="55" spans="2:12" ht="17" thickBot="1">
-      <c r="B55" s="41">
+      <c r="B55" s="37">
         <v>378</v>
       </c>
-      <c r="C55" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="D55" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="E55" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="F55" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G55" s="43" t="s">
+      <c r="C55" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="E55" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="F55" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="G55" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="H55" s="43" t="s">
+      <c r="H55" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="I55" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="J55" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="K55" s="41" t="s">
+      <c r="I55" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="J55" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="K55" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="L55" s="41" t="s">
+      <c r="L55" s="37" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="56" spans="2:12">
-      <c r="B56" s="80">
+      <c r="B56" s="82">
         <v>405</v>
       </c>
-      <c r="C56" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="D56" s="57" t="s">
+      <c r="C56" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="E56" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="F56" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="G56" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="H56" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="I56" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="J56" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="K56" s="49" t="s">
+      <c r="E56" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="F56" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="G56" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="H56" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="I56" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="J56" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="K56" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="L56" s="49"/>
+      <c r="L56" s="45"/>
     </row>
     <row r="57" spans="2:12">
-      <c r="B57" s="81"/>
-      <c r="C57" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="D57" s="57" t="s">
+      <c r="B57" s="83"/>
+      <c r="C57" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="D57" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="E57" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="F57" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="G57" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="H57" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="I57" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="J57" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="K57" s="58" t="s">
+      <c r="E57" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="F57" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="G57" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="H57" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="I57" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="J57" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="K57" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="L57" s="58"/>
+      <c r="L57" s="53"/>
     </row>
     <row r="58" spans="2:12">
-      <c r="B58" s="81"/>
-      <c r="C58" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="D58" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="E58" s="51">
+      <c r="B58" s="83"/>
+      <c r="C58" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="D58" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="E58" s="47">
         <v>24</v>
       </c>
-      <c r="F58" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="G58" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="H58" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="I58" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="J58" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="K58" s="53" t="s">
+      <c r="F58" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="G58" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="H58" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="I58" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="J58" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="K58" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="L58" s="53"/>
+      <c r="L58" s="49"/>
     </row>
     <row r="59" spans="2:12" ht="17" thickBot="1">
-      <c r="B59" s="82"/>
-      <c r="C59" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="D59" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="E59" s="36">
+      <c r="B59" s="84"/>
+      <c r="C59" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="D59" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="E59" s="35">
         <v>20</v>
       </c>
-      <c r="F59" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="G59" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="H59" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="I59" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="J59" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="K59" s="56" t="s">
+      <c r="F59" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="G59" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="H59" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="I59" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="J59" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="K59" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="L59" s="56"/>
+      <c r="L59" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -3776,54 +3764,54 @@
       <c r="D6" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="E6" s="90">
+      <c r="E6" s="92">
         <v>9</v>
       </c>
-      <c r="F6" s="90"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="90"/>
-      <c r="I6" s="90">
+      <c r="F6" s="92"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="92"/>
+      <c r="I6" s="92">
         <v>8</v>
       </c>
-      <c r="J6" s="90"/>
-      <c r="K6" s="90"/>
-      <c r="L6" s="90"/>
-      <c r="M6" s="90">
+      <c r="J6" s="92"/>
+      <c r="K6" s="92"/>
+      <c r="L6" s="92"/>
+      <c r="M6" s="92">
         <v>1</v>
       </c>
-      <c r="N6" s="90"/>
-      <c r="O6" s="90"/>
-      <c r="P6" s="90"/>
-      <c r="Q6" s="90">
+      <c r="N6" s="92"/>
+      <c r="O6" s="92"/>
+      <c r="P6" s="92"/>
+      <c r="Q6" s="92">
         <v>9</v>
       </c>
-      <c r="R6" s="90"/>
-      <c r="S6" s="90"/>
-      <c r="T6" s="90"/>
-      <c r="U6" s="90">
+      <c r="R6" s="92"/>
+      <c r="S6" s="92"/>
+      <c r="T6" s="92"/>
+      <c r="U6" s="92">
         <v>2</v>
       </c>
-      <c r="V6" s="90"/>
-      <c r="W6" s="90"/>
-      <c r="X6" s="90"/>
-      <c r="Y6" s="90">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="90"/>
-      <c r="AA6" s="90"/>
-      <c r="AB6" s="90"/>
-      <c r="AC6" s="90">
+      <c r="V6" s="92"/>
+      <c r="W6" s="92"/>
+      <c r="X6" s="92"/>
+      <c r="Y6" s="92">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="92"/>
+      <c r="AA6" s="92"/>
+      <c r="AB6" s="92"/>
+      <c r="AC6" s="92">
         <v>1</v>
       </c>
-      <c r="AD6" s="90"/>
-      <c r="AE6" s="90"/>
-      <c r="AF6" s="90"/>
-      <c r="AG6" s="90">
+      <c r="AD6" s="92"/>
+      <c r="AE6" s="92"/>
+      <c r="AF6" s="92"/>
+      <c r="AG6" s="92">
         <v>3</v>
       </c>
-      <c r="AH6" s="90"/>
-      <c r="AI6" s="90"/>
-      <c r="AJ6" s="90"/>
+      <c r="AH6" s="92"/>
+      <c r="AI6" s="92"/>
+      <c r="AJ6" s="92"/>
     </row>
     <row r="7" spans="2:36">
       <c r="C7" s="6" t="s">
@@ -4173,54 +4161,54 @@
       <c r="D11" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E11" s="90">
+      <c r="E11" s="92">
         <v>9</v>
       </c>
-      <c r="F11" s="90"/>
-      <c r="G11" s="90"/>
-      <c r="H11" s="90"/>
-      <c r="I11" s="90">
+      <c r="F11" s="92"/>
+      <c r="G11" s="92"/>
+      <c r="H11" s="92"/>
+      <c r="I11" s="92">
         <v>8</v>
       </c>
-      <c r="J11" s="90"/>
-      <c r="K11" s="90"/>
-      <c r="L11" s="90"/>
-      <c r="M11" s="90">
-        <v>0</v>
-      </c>
-      <c r="N11" s="90"/>
-      <c r="O11" s="90"/>
-      <c r="P11" s="90"/>
-      <c r="Q11" s="90">
+      <c r="J11" s="92"/>
+      <c r="K11" s="92"/>
+      <c r="L11" s="92"/>
+      <c r="M11" s="92">
+        <v>0</v>
+      </c>
+      <c r="N11" s="92"/>
+      <c r="O11" s="92"/>
+      <c r="P11" s="92"/>
+      <c r="Q11" s="92">
         <v>1</v>
       </c>
-      <c r="R11" s="90"/>
-      <c r="S11" s="90"/>
-      <c r="T11" s="90"/>
-      <c r="U11" s="90" t="s">
+      <c r="R11" s="92"/>
+      <c r="S11" s="92"/>
+      <c r="T11" s="92"/>
+      <c r="U11" s="92" t="s">
         <v>122</v>
       </c>
-      <c r="V11" s="90"/>
-      <c r="W11" s="90"/>
-      <c r="X11" s="90"/>
-      <c r="Y11" s="90">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="90"/>
-      <c r="AA11" s="90"/>
-      <c r="AB11" s="90"/>
-      <c r="AC11" s="90">
+      <c r="V11" s="92"/>
+      <c r="W11" s="92"/>
+      <c r="X11" s="92"/>
+      <c r="Y11" s="92">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="92"/>
+      <c r="AA11" s="92"/>
+      <c r="AB11" s="92"/>
+      <c r="AC11" s="92">
         <v>1</v>
       </c>
-      <c r="AD11" s="90"/>
-      <c r="AE11" s="90"/>
-      <c r="AF11" s="90"/>
-      <c r="AG11" s="90">
+      <c r="AD11" s="92"/>
+      <c r="AE11" s="92"/>
+      <c r="AF11" s="92"/>
+      <c r="AG11" s="92">
         <v>1</v>
       </c>
-      <c r="AH11" s="90"/>
-      <c r="AI11" s="90"/>
-      <c r="AJ11" s="90"/>
+      <c r="AH11" s="92"/>
+      <c r="AI11" s="92"/>
+      <c r="AJ11" s="92"/>
     </row>
     <row r="12" spans="2:36">
       <c r="C12" s="6" t="s">
@@ -4564,54 +4552,54 @@
       <c r="D16" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E16" s="90" t="s">
+      <c r="E16" s="92" t="s">
         <v>145</v>
       </c>
-      <c r="F16" s="90"/>
-      <c r="G16" s="90"/>
-      <c r="H16" s="90"/>
-      <c r="I16" s="90">
+      <c r="F16" s="92"/>
+      <c r="G16" s="92"/>
+      <c r="H16" s="92"/>
+      <c r="I16" s="92">
         <v>4</v>
       </c>
-      <c r="J16" s="90"/>
-      <c r="K16" s="90"/>
-      <c r="L16" s="90"/>
-      <c r="M16" s="90" t="s">
+      <c r="J16" s="92"/>
+      <c r="K16" s="92"/>
+      <c r="L16" s="92"/>
+      <c r="M16" s="92" t="s">
         <v>146</v>
       </c>
-      <c r="N16" s="90"/>
-      <c r="O16" s="90"/>
-      <c r="P16" s="90"/>
-      <c r="Q16" s="90">
+      <c r="N16" s="92"/>
+      <c r="O16" s="92"/>
+      <c r="P16" s="92"/>
+      <c r="Q16" s="92">
         <v>2</v>
       </c>
-      <c r="R16" s="90"/>
-      <c r="S16" s="90"/>
-      <c r="T16" s="90"/>
-      <c r="U16" s="90">
+      <c r="R16" s="92"/>
+      <c r="S16" s="92"/>
+      <c r="T16" s="92"/>
+      <c r="U16" s="92">
         <v>8</v>
       </c>
-      <c r="V16" s="90"/>
-      <c r="W16" s="90"/>
-      <c r="X16" s="90"/>
-      <c r="Y16" s="90">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="90"/>
-      <c r="AA16" s="90"/>
-      <c r="AB16" s="90"/>
-      <c r="AC16" s="90">
-        <v>0</v>
-      </c>
-      <c r="AD16" s="90"/>
-      <c r="AE16" s="90"/>
-      <c r="AF16" s="90"/>
-      <c r="AG16" s="90" t="s">
+      <c r="V16" s="92"/>
+      <c r="W16" s="92"/>
+      <c r="X16" s="92"/>
+      <c r="Y16" s="92">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="92"/>
+      <c r="AA16" s="92"/>
+      <c r="AB16" s="92"/>
+      <c r="AC16" s="92">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="92"/>
+      <c r="AE16" s="92"/>
+      <c r="AF16" s="92"/>
+      <c r="AG16" s="92" t="s">
         <v>146</v>
       </c>
-      <c r="AH16" s="90"/>
-      <c r="AI16" s="90"/>
-      <c r="AJ16" s="90"/>
+      <c r="AH16" s="92"/>
+      <c r="AI16" s="92"/>
+      <c r="AJ16" s="92"/>
     </row>
     <row r="17" spans="2:36">
       <c r="C17" s="6" t="s">
@@ -4989,54 +4977,54 @@
       <c r="D21" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E21" s="90" t="s">
+      <c r="E21" s="92" t="s">
         <v>121</v>
       </c>
-      <c r="F21" s="90"/>
-      <c r="G21" s="90"/>
-      <c r="H21" s="90"/>
-      <c r="I21" s="90" t="s">
+      <c r="F21" s="92"/>
+      <c r="G21" s="92"/>
+      <c r="H21" s="92"/>
+      <c r="I21" s="92" t="s">
         <v>122</v>
       </c>
-      <c r="J21" s="90"/>
-      <c r="K21" s="90"/>
-      <c r="L21" s="90"/>
-      <c r="M21" s="90" t="s">
+      <c r="J21" s="92"/>
+      <c r="K21" s="92"/>
+      <c r="L21" s="92"/>
+      <c r="M21" s="92" t="s">
         <v>122</v>
       </c>
-      <c r="N21" s="90"/>
-      <c r="O21" s="90"/>
-      <c r="P21" s="90"/>
-      <c r="Q21" s="90">
+      <c r="N21" s="92"/>
+      <c r="O21" s="92"/>
+      <c r="P21" s="92"/>
+      <c r="Q21" s="92">
         <v>9</v>
       </c>
-      <c r="R21" s="90"/>
-      <c r="S21" s="90"/>
-      <c r="T21" s="90"/>
-      <c r="U21" s="90" t="s">
+      <c r="R21" s="92"/>
+      <c r="S21" s="92"/>
+      <c r="T21" s="92"/>
+      <c r="U21" s="92" t="s">
         <v>122</v>
       </c>
-      <c r="V21" s="90"/>
-      <c r="W21" s="90"/>
-      <c r="X21" s="90"/>
-      <c r="Y21" s="90">
+      <c r="V21" s="92"/>
+      <c r="W21" s="92"/>
+      <c r="X21" s="92"/>
+      <c r="Y21" s="92">
         <v>3</v>
       </c>
-      <c r="Z21" s="90"/>
-      <c r="AA21" s="90"/>
-      <c r="AB21" s="90"/>
-      <c r="AC21" s="90">
+      <c r="Z21" s="92"/>
+      <c r="AA21" s="92"/>
+      <c r="AB21" s="92"/>
+      <c r="AC21" s="92">
         <v>4</v>
       </c>
-      <c r="AD21" s="90"/>
-      <c r="AE21" s="90"/>
-      <c r="AF21" s="90"/>
-      <c r="AG21" s="90">
+      <c r="AD21" s="92"/>
+      <c r="AE21" s="92"/>
+      <c r="AF21" s="92"/>
+      <c r="AG21" s="92">
         <v>3</v>
       </c>
-      <c r="AH21" s="90"/>
-      <c r="AI21" s="90"/>
-      <c r="AJ21" s="90"/>
+      <c r="AH21" s="92"/>
+      <c r="AI21" s="92"/>
+      <c r="AJ21" s="92"/>
     </row>
     <row r="22" spans="2:36">
       <c r="C22" s="3"/>
@@ -5410,54 +5398,54 @@
       <c r="D26" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="E26" s="98" t="s">
+      <c r="E26" s="93" t="s">
         <v>145</v>
       </c>
-      <c r="F26" s="98"/>
-      <c r="G26" s="98"/>
-      <c r="H26" s="98"/>
-      <c r="I26" s="98">
-        <v>0</v>
-      </c>
-      <c r="J26" s="98"/>
-      <c r="K26" s="98"/>
-      <c r="L26" s="98"/>
-      <c r="M26" s="98" t="s">
+      <c r="F26" s="93"/>
+      <c r="G26" s="93"/>
+      <c r="H26" s="93"/>
+      <c r="I26" s="93">
+        <v>0</v>
+      </c>
+      <c r="J26" s="93"/>
+      <c r="K26" s="93"/>
+      <c r="L26" s="93"/>
+      <c r="M26" s="93" t="s">
         <v>122</v>
       </c>
-      <c r="N26" s="98"/>
-      <c r="O26" s="98"/>
-      <c r="P26" s="98"/>
-      <c r="Q26" s="98">
-        <v>0</v>
-      </c>
-      <c r="R26" s="98"/>
-      <c r="S26" s="98"/>
-      <c r="T26" s="98"/>
-      <c r="U26" s="98">
-        <v>0</v>
-      </c>
-      <c r="V26" s="98"/>
-      <c r="W26" s="98"/>
-      <c r="X26" s="98"/>
-      <c r="Y26" s="98">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="98"/>
-      <c r="AA26" s="98"/>
-      <c r="AB26" s="98"/>
-      <c r="AC26" s="98">
-        <v>0</v>
-      </c>
-      <c r="AD26" s="98"/>
-      <c r="AE26" s="98"/>
-      <c r="AF26" s="98"/>
-      <c r="AG26" s="98">
-        <v>0</v>
-      </c>
-      <c r="AH26" s="98"/>
-      <c r="AI26" s="98"/>
-      <c r="AJ26" s="98"/>
+      <c r="N26" s="93"/>
+      <c r="O26" s="93"/>
+      <c r="P26" s="93"/>
+      <c r="Q26" s="93">
+        <v>0</v>
+      </c>
+      <c r="R26" s="93"/>
+      <c r="S26" s="93"/>
+      <c r="T26" s="93"/>
+      <c r="U26" s="93">
+        <v>0</v>
+      </c>
+      <c r="V26" s="93"/>
+      <c r="W26" s="93"/>
+      <c r="X26" s="93"/>
+      <c r="Y26" s="93">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="93"/>
+      <c r="AA26" s="93"/>
+      <c r="AB26" s="93"/>
+      <c r="AC26" s="93">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="93"/>
+      <c r="AE26" s="93"/>
+      <c r="AF26" s="93"/>
+      <c r="AG26" s="93">
+        <v>0</v>
+      </c>
+      <c r="AH26" s="93"/>
+      <c r="AI26" s="93"/>
+      <c r="AJ26" s="93"/>
     </row>
     <row r="27" spans="2:36">
       <c r="C27" s="3"/>
@@ -5858,11 +5846,11 @@
       <c r="AJ31" s="7"/>
     </row>
     <row r="32" spans="2:36">
-      <c r="B32" s="90" t="s">
+      <c r="B32" s="92" t="s">
         <v>184</v>
       </c>
-      <c r="C32" s="90"/>
-      <c r="D32" s="90"/>
+      <c r="C32" s="92"/>
+      <c r="D32" s="92"/>
       <c r="E32" s="7">
         <v>1</v>
       </c>
@@ -5902,11 +5890,11 @@
       <c r="AJ32" s="7"/>
     </row>
     <row r="33" spans="2:36">
-      <c r="B33" s="93" t="s">
+      <c r="B33" s="94" t="s">
         <v>226</v>
       </c>
-      <c r="C33" s="93"/>
-      <c r="D33" s="93"/>
+      <c r="C33" s="94"/>
+      <c r="D33" s="94"/>
       <c r="E33" s="7">
         <v>4</v>
       </c>
@@ -5962,11 +5950,11 @@
       <c r="AJ33" s="7"/>
     </row>
     <row r="34" spans="2:36">
-      <c r="B34" s="95" t="s">
+      <c r="B34" s="96" t="s">
         <v>185</v>
       </c>
-      <c r="C34" s="95"/>
-      <c r="D34" s="95"/>
+      <c r="C34" s="96"/>
+      <c r="D34" s="96"/>
       <c r="E34" s="7">
         <v>5</v>
       </c>
@@ -6007,11 +5995,11 @@
       <c r="AJ34" s="7"/>
     </row>
     <row r="35" spans="2:36">
-      <c r="B35" s="95" t="s">
+      <c r="B35" s="96" t="s">
         <v>186</v>
       </c>
-      <c r="C35" s="95"/>
-      <c r="D35" s="95"/>
+      <c r="C35" s="96"/>
+      <c r="D35" s="96"/>
       <c r="E35" s="9" t="s">
         <v>71</v>
       </c>
@@ -6049,11 +6037,11 @@
       <c r="AJ35" s="8"/>
     </row>
     <row r="36" spans="2:36">
-      <c r="B36" s="97" t="s">
+      <c r="B36" s="95" t="s">
         <v>187</v>
       </c>
-      <c r="C36" s="97"/>
-      <c r="D36" s="97"/>
+      <c r="C36" s="95"/>
+      <c r="D36" s="95"/>
       <c r="E36" s="9" t="s">
         <v>108</v>
       </c>
@@ -6091,11 +6079,11 @@
       <c r="AJ36" s="11"/>
     </row>
     <row r="37" spans="2:36">
-      <c r="B37" s="93" t="s">
+      <c r="B37" s="94" t="s">
         <v>188</v>
       </c>
-      <c r="C37" s="93"/>
-      <c r="D37" s="93"/>
+      <c r="C37" s="94"/>
+      <c r="D37" s="94"/>
       <c r="E37" s="7">
         <v>10</v>
       </c>
@@ -6133,11 +6121,11 @@
       <c r="AJ37" s="7"/>
     </row>
     <row r="38" spans="2:36">
-      <c r="B38" s="90" t="s">
+      <c r="B38" s="92" t="s">
         <v>189</v>
       </c>
-      <c r="C38" s="90"/>
-      <c r="D38" s="90"/>
+      <c r="C38" s="92"/>
+      <c r="D38" s="92"/>
       <c r="E38" s="7">
         <v>13</v>
       </c>
@@ -6174,11 +6162,11 @@
       <c r="AJ38" s="7"/>
     </row>
     <row r="39" spans="2:36">
-      <c r="B39" s="90" t="s">
+      <c r="B39" s="92" t="s">
         <v>190</v>
       </c>
-      <c r="C39" s="90"/>
-      <c r="D39" s="90"/>
+      <c r="C39" s="92"/>
+      <c r="D39" s="92"/>
       <c r="E39" s="7" t="s">
         <v>70</v>
       </c>
@@ -6215,417 +6203,490 @@
       <c r="AJ39" s="7"/>
     </row>
     <row r="40" spans="2:36">
-      <c r="B40" s="93" t="s">
+      <c r="B40" s="94" t="s">
         <v>191</v>
       </c>
-      <c r="C40" s="93"/>
-      <c r="D40" s="93"/>
+      <c r="C40" s="94"/>
+      <c r="D40" s="94"/>
       <c r="E40" s="2" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="41" spans="2:36">
-      <c r="B41" s="92" t="s">
+      <c r="B41" s="97" t="s">
         <v>183</v>
       </c>
-      <c r="C41" s="92"/>
-      <c r="D41" s="92"/>
+      <c r="C41" s="97"/>
+      <c r="D41" s="97"/>
       <c r="E41" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="42" spans="2:36">
-      <c r="B42" s="90" t="s">
+      <c r="B42" s="92" t="s">
         <v>192</v>
       </c>
-      <c r="C42" s="90"/>
-      <c r="D42" s="90"/>
+      <c r="C42" s="92"/>
+      <c r="D42" s="92"/>
       <c r="E42" s="2">
         <v>21</v>
       </c>
     </row>
     <row r="43" spans="2:36" ht="30.75" customHeight="1">
-      <c r="B43" s="91" t="s">
+      <c r="B43" s="99" t="s">
         <v>193</v>
       </c>
-      <c r="C43" s="91"/>
-      <c r="D43" s="91"/>
+      <c r="C43" s="99"/>
+      <c r="D43" s="99"/>
       <c r="E43" s="2">
         <v>24</v>
       </c>
     </row>
     <row r="44" spans="2:36">
-      <c r="B44" s="90" t="s">
+      <c r="B44" s="92" t="s">
         <v>194</v>
       </c>
-      <c r="C44" s="90"/>
-      <c r="D44" s="90"/>
+      <c r="C44" s="92"/>
+      <c r="D44" s="92"/>
       <c r="E44" s="2">
         <v>25</v>
       </c>
     </row>
     <row r="45" spans="2:36">
-      <c r="B45" s="90" t="s">
+      <c r="B45" s="92" t="s">
         <v>195</v>
       </c>
-      <c r="C45" s="90"/>
-      <c r="D45" s="90"/>
+      <c r="C45" s="92"/>
+      <c r="D45" s="92"/>
       <c r="E45" s="2">
         <v>30</v>
       </c>
     </row>
     <row r="46" spans="2:36">
-      <c r="B46" s="90" t="s">
+      <c r="B46" s="92" t="s">
         <v>196</v>
       </c>
-      <c r="C46" s="90"/>
-      <c r="D46" s="90"/>
+      <c r="C46" s="92"/>
+      <c r="D46" s="92"/>
       <c r="E46" s="2">
         <v>31</v>
       </c>
     </row>
     <row r="47" spans="2:36">
-      <c r="B47" s="96" t="s">
+      <c r="B47" s="98" t="s">
         <v>197</v>
       </c>
-      <c r="C47" s="96"/>
-      <c r="D47" s="96"/>
+      <c r="C47" s="98"/>
+      <c r="D47" s="98"/>
       <c r="E47" s="2">
         <v>33</v>
       </c>
     </row>
     <row r="48" spans="2:36">
-      <c r="B48" s="93" t="s">
+      <c r="B48" s="94" t="s">
         <v>198</v>
       </c>
-      <c r="C48" s="93"/>
-      <c r="D48" s="93"/>
+      <c r="C48" s="94"/>
+      <c r="D48" s="94"/>
       <c r="E48" s="2" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="49" spans="2:5">
-      <c r="B49" s="92" t="s">
+      <c r="B49" s="97" t="s">
         <v>183</v>
       </c>
-      <c r="C49" s="92"/>
-      <c r="D49" s="92"/>
+      <c r="C49" s="97"/>
+      <c r="D49" s="97"/>
       <c r="E49" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="50" spans="2:5">
-      <c r="B50" s="90" t="s">
+      <c r="B50" s="92" t="s">
         <v>199</v>
       </c>
-      <c r="C50" s="90"/>
-      <c r="D50" s="90"/>
+      <c r="C50" s="92"/>
+      <c r="D50" s="92"/>
       <c r="E50" s="2">
         <v>41</v>
       </c>
     </row>
     <row r="51" spans="2:5">
-      <c r="B51" s="90" t="s">
+      <c r="B51" s="92" t="s">
         <v>200</v>
       </c>
-      <c r="C51" s="90"/>
-      <c r="D51" s="90"/>
+      <c r="C51" s="92"/>
+      <c r="D51" s="92"/>
       <c r="E51" s="2">
         <v>42</v>
       </c>
     </row>
     <row r="52" spans="2:5">
-      <c r="B52" s="95" t="s">
+      <c r="B52" s="96" t="s">
         <v>201</v>
       </c>
-      <c r="C52" s="95"/>
-      <c r="D52" s="95"/>
+      <c r="C52" s="96"/>
+      <c r="D52" s="96"/>
       <c r="E52" s="7">
         <v>46</v>
       </c>
     </row>
     <row r="53" spans="2:5">
-      <c r="B53" s="95" t="s">
+      <c r="B53" s="96" t="s">
         <v>202</v>
       </c>
-      <c r="C53" s="95"/>
-      <c r="D53" s="95"/>
+      <c r="C53" s="96"/>
+      <c r="D53" s="96"/>
       <c r="E53" s="7">
         <v>49</v>
       </c>
     </row>
     <row r="54" spans="2:5">
-      <c r="B54" s="95" t="s">
+      <c r="B54" s="96" t="s">
         <v>203</v>
       </c>
-      <c r="C54" s="95"/>
-      <c r="D54" s="95"/>
+      <c r="C54" s="96"/>
+      <c r="D54" s="96"/>
       <c r="E54" s="2" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="55" spans="2:5">
-      <c r="B55" s="95" t="s">
+      <c r="B55" s="96" t="s">
         <v>204</v>
       </c>
-      <c r="C55" s="95"/>
-      <c r="D55" s="95"/>
+      <c r="C55" s="96"/>
+      <c r="D55" s="96"/>
       <c r="E55" s="2" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="56" spans="2:5" ht="31.5" customHeight="1">
-      <c r="B56" s="94" t="s">
+      <c r="B56" s="100" t="s">
         <v>205</v>
       </c>
-      <c r="C56" s="94"/>
-      <c r="D56" s="94"/>
+      <c r="C56" s="100"/>
+      <c r="D56" s="100"/>
       <c r="E56" s="2" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="57" spans="2:5">
-      <c r="B57" s="90" t="s">
+      <c r="B57" s="92" t="s">
         <v>206</v>
       </c>
-      <c r="C57" s="90"/>
-      <c r="D57" s="90"/>
+      <c r="C57" s="92"/>
+      <c r="D57" s="92"/>
       <c r="E57" s="2">
         <v>51</v>
       </c>
     </row>
     <row r="58" spans="2:5">
-      <c r="B58" s="93" t="s">
+      <c r="B58" s="94" t="s">
         <v>207</v>
       </c>
-      <c r="C58" s="93"/>
-      <c r="D58" s="93"/>
+      <c r="C58" s="94"/>
+      <c r="D58" s="94"/>
       <c r="E58" s="2" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="59" spans="2:5">
-      <c r="B59" s="93" t="s">
+      <c r="B59" s="94" t="s">
         <v>208</v>
       </c>
-      <c r="C59" s="93"/>
-      <c r="D59" s="93"/>
+      <c r="C59" s="94"/>
+      <c r="D59" s="94"/>
       <c r="E59" s="2" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="60" spans="2:5">
-      <c r="B60" s="92" t="s">
+      <c r="B60" s="97" t="s">
         <v>183</v>
       </c>
-      <c r="C60" s="92"/>
-      <c r="D60" s="92"/>
+      <c r="C60" s="97"/>
+      <c r="D60" s="97"/>
       <c r="E60" s="2">
         <v>60</v>
       </c>
     </row>
     <row r="61" spans="2:5">
-      <c r="B61" s="93" t="s">
+      <c r="B61" s="94" t="s">
         <v>209</v>
       </c>
-      <c r="C61" s="93"/>
-      <c r="D61" s="93"/>
+      <c r="C61" s="94"/>
+      <c r="D61" s="94"/>
       <c r="E61" s="2">
         <v>61</v>
       </c>
     </row>
     <row r="62" spans="2:5">
-      <c r="B62" s="93" t="s">
+      <c r="B62" s="94" t="s">
         <v>210</v>
       </c>
-      <c r="C62" s="93"/>
-      <c r="D62" s="93"/>
+      <c r="C62" s="94"/>
+      <c r="D62" s="94"/>
       <c r="E62" s="2">
         <v>62</v>
       </c>
     </row>
     <row r="63" spans="2:5">
-      <c r="B63" s="93" t="s">
+      <c r="B63" s="94" t="s">
         <v>211</v>
       </c>
-      <c r="C63" s="93"/>
-      <c r="D63" s="93"/>
+      <c r="C63" s="94"/>
+      <c r="D63" s="94"/>
       <c r="E63" s="2">
         <v>63</v>
       </c>
     </row>
     <row r="64" spans="2:5">
-      <c r="B64" s="90" t="s">
+      <c r="B64" s="92" t="s">
         <v>212</v>
       </c>
-      <c r="C64" s="90"/>
-      <c r="D64" s="90"/>
+      <c r="C64" s="92"/>
+      <c r="D64" s="92"/>
       <c r="E64" s="2">
         <v>65</v>
       </c>
     </row>
     <row r="65" spans="2:5">
-      <c r="B65" s="90" t="s">
+      <c r="B65" s="92" t="s">
         <v>185</v>
       </c>
-      <c r="C65" s="90"/>
-      <c r="D65" s="90"/>
+      <c r="C65" s="92"/>
+      <c r="D65" s="92"/>
       <c r="E65" s="2">
         <v>67</v>
       </c>
     </row>
     <row r="66" spans="2:5">
-      <c r="B66" s="90" t="s">
+      <c r="B66" s="92" t="s">
         <v>213</v>
       </c>
-      <c r="C66" s="90"/>
-      <c r="D66" s="90"/>
+      <c r="C66" s="92"/>
+      <c r="D66" s="92"/>
       <c r="E66" s="2">
         <v>69</v>
       </c>
     </row>
     <row r="67" spans="2:5">
-      <c r="B67" s="90" t="s">
+      <c r="B67" s="92" t="s">
         <v>214</v>
       </c>
-      <c r="C67" s="90"/>
-      <c r="D67" s="90"/>
+      <c r="C67" s="92"/>
+      <c r="D67" s="92"/>
       <c r="E67" s="2" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="68" spans="2:5">
-      <c r="B68" s="90" t="s">
+      <c r="B68" s="92" t="s">
         <v>215</v>
       </c>
-      <c r="C68" s="90"/>
-      <c r="D68" s="90"/>
+      <c r="C68" s="92"/>
+      <c r="D68" s="92"/>
       <c r="E68" s="2" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="69" spans="2:5">
-      <c r="B69" s="90" t="s">
+      <c r="B69" s="92" t="s">
         <v>216</v>
       </c>
-      <c r="C69" s="90"/>
-      <c r="D69" s="90"/>
+      <c r="C69" s="92"/>
+      <c r="D69" s="92"/>
       <c r="E69" s="7">
         <v>70</v>
       </c>
     </row>
     <row r="70" spans="2:5">
-      <c r="B70" s="90" t="s">
+      <c r="B70" s="92" t="s">
         <v>217</v>
       </c>
-      <c r="C70" s="90"/>
-      <c r="D70" s="90"/>
+      <c r="C70" s="92"/>
+      <c r="D70" s="92"/>
       <c r="E70" s="9">
         <v>71</v>
       </c>
     </row>
     <row r="71" spans="2:5">
-      <c r="B71" s="90" t="s">
+      <c r="B71" s="92" t="s">
         <v>218</v>
       </c>
-      <c r="C71" s="90"/>
-      <c r="D71" s="90"/>
+      <c r="C71" s="92"/>
+      <c r="D71" s="92"/>
       <c r="E71" s="9">
         <v>73</v>
       </c>
     </row>
     <row r="72" spans="2:5">
-      <c r="B72" s="90" t="s">
+      <c r="B72" s="92" t="s">
         <v>219</v>
       </c>
-      <c r="C72" s="90"/>
-      <c r="D72" s="90"/>
+      <c r="C72" s="92"/>
+      <c r="D72" s="92"/>
       <c r="E72" s="7">
         <v>77</v>
       </c>
     </row>
     <row r="73" spans="2:5">
-      <c r="B73" s="90" t="s">
+      <c r="B73" s="92" t="s">
         <v>220</v>
       </c>
-      <c r="C73" s="90"/>
-      <c r="D73" s="90"/>
+      <c r="C73" s="92"/>
+      <c r="D73" s="92"/>
       <c r="E73" s="7">
         <v>78</v>
       </c>
     </row>
     <row r="74" spans="2:5">
-      <c r="B74" s="90" t="s">
+      <c r="B74" s="92" t="s">
         <v>221</v>
       </c>
-      <c r="C74" s="90"/>
-      <c r="D74" s="90"/>
+      <c r="C74" s="92"/>
+      <c r="D74" s="92"/>
       <c r="E74" s="7" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="75" spans="2:5">
-      <c r="B75" s="90" t="s">
+      <c r="B75" s="92" t="s">
         <v>222</v>
       </c>
-      <c r="C75" s="90"/>
-      <c r="D75" s="90"/>
+      <c r="C75" s="92"/>
+      <c r="D75" s="92"/>
       <c r="E75" s="2" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="76" spans="2:5">
-      <c r="B76" s="92" t="s">
+      <c r="B76" s="97" t="s">
         <v>183</v>
       </c>
-      <c r="C76" s="92"/>
-      <c r="D76" s="92"/>
+      <c r="C76" s="97"/>
+      <c r="D76" s="97"/>
       <c r="E76" s="2">
         <v>80</v>
       </c>
     </row>
     <row r="77" spans="2:5" ht="32.25" customHeight="1">
-      <c r="B77" s="91" t="s">
+      <c r="B77" s="99" t="s">
         <v>223</v>
       </c>
-      <c r="C77" s="91"/>
-      <c r="D77" s="91"/>
+      <c r="C77" s="99"/>
+      <c r="D77" s="99"/>
       <c r="E77" s="2">
         <v>81</v>
       </c>
     </row>
     <row r="78" spans="2:5" ht="32.25" customHeight="1">
-      <c r="B78" s="91" t="s">
+      <c r="B78" s="99" t="s">
         <v>223</v>
       </c>
-      <c r="C78" s="91"/>
-      <c r="D78" s="91"/>
+      <c r="C78" s="99"/>
+      <c r="D78" s="99"/>
       <c r="E78" s="2">
         <v>82</v>
       </c>
     </row>
     <row r="79" spans="2:5">
-      <c r="B79" s="90" t="s">
+      <c r="B79" s="92" t="s">
         <v>224</v>
       </c>
-      <c r="C79" s="90"/>
-      <c r="D79" s="90"/>
+      <c r="C79" s="92"/>
+      <c r="D79" s="92"/>
       <c r="E79" s="2">
         <v>89</v>
       </c>
     </row>
     <row r="80" spans="2:5">
-      <c r="B80" s="90" t="s">
+      <c r="B80" s="92" t="s">
         <v>225</v>
       </c>
-      <c r="C80" s="90"/>
-      <c r="D80" s="90"/>
+      <c r="C80" s="92"/>
+      <c r="D80" s="92"/>
       <c r="E80" s="2" t="s">
         <v>171</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="89">
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="Y11:AB11"/>
+    <mergeCell ref="AC11:AF11"/>
+    <mergeCell ref="AG11:AJ11"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="Q11:T11"/>
+    <mergeCell ref="U11:X11"/>
+    <mergeCell ref="AC26:AF26"/>
+    <mergeCell ref="AG26:AJ26"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="Q26:T26"/>
+    <mergeCell ref="U26:X26"/>
+    <mergeCell ref="Y26:AB26"/>
+    <mergeCell ref="AC16:AF16"/>
+    <mergeCell ref="AG16:AJ16"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="M16:P16"/>
+    <mergeCell ref="Q16:T16"/>
+    <mergeCell ref="U16:X16"/>
+    <mergeCell ref="Y16:AB16"/>
     <mergeCell ref="AC6:AF6"/>
     <mergeCell ref="AG6:AJ6"/>
     <mergeCell ref="E21:H21"/>
@@ -6642,79 +6703,6 @@
     <mergeCell ref="Q6:T6"/>
     <mergeCell ref="U6:X6"/>
     <mergeCell ref="Y6:AB6"/>
-    <mergeCell ref="Y26:AB26"/>
-    <mergeCell ref="AC16:AF16"/>
-    <mergeCell ref="AG16:AJ16"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="M16:P16"/>
-    <mergeCell ref="Q16:T16"/>
-    <mergeCell ref="U16:X16"/>
-    <mergeCell ref="Y16:AB16"/>
-    <mergeCell ref="Y11:AB11"/>
-    <mergeCell ref="AC11:AF11"/>
-    <mergeCell ref="AG11:AJ11"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="M11:P11"/>
-    <mergeCell ref="Q11:T11"/>
-    <mergeCell ref="U11:X11"/>
-    <mergeCell ref="AC26:AF26"/>
-    <mergeCell ref="AG26:AJ26"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="Q26:T26"/>
-    <mergeCell ref="U26:X26"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="B71:D71"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Canbus Decode.xlsx
+++ b/Canbus Decode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Marcellatwin/Documents/GitHub/honda-canbus-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F90EA8CA-9539-E346-A086-81B5859F0B39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42AC7D02-BCB4-8648-B128-EDBC2D0D97C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1795,8 +1795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:M59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" topLeftCell="B14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>

--- a/Canbus Decode.xlsx
+++ b/Canbus Decode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Marcellatwin/Documents/GitHub/honda-canbus-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42AC7D02-BCB4-8648-B128-EDBC2D0D97C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A944CD52-1DE3-CB44-B725-E15CF01E10BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1795,8 +1795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:M59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K52" sqref="K52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
